--- a/input_data/USA/Filter_2007_ExtAgg.xlsx
+++ b/input_data/USA/Filter_2007_ExtAgg.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CB4B4-1CE9-4027-B951-9A8F6395BED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF978B1-A9C5-4303-9CF3-45DDDE9AF280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
-    <sheet name="filter" sheetId="1" r:id="rId2"/>
+    <sheet name="mass_&amp;_aggreg" sheetId="1" r:id="rId2"/>
+    <sheet name="exio_usa" sheetId="3" r:id="rId3"/>
+    <sheet name="yield" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -174,8 +176,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{1513AD69-A3FC-482B-9672-530FF3888BDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ zero cells are filled in code and assumed with 100% yield; for USA, we only use yield values for basic materials going to interemdiate/final products from Exiobase yield and assume final product - final product interactions with no losses</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="901">
   <si>
     <t>Oilseed farming</t>
   </si>
@@ -1416,9 +1452,6 @@
     <t>Other consumer durables</t>
   </si>
   <si>
-    <t>The tab 'filter' contains the overarching filter matrix which provides settings for three operations:</t>
-  </si>
-  <si>
     <t>Raw_materials</t>
   </si>
   <si>
@@ -2640,9 +2673,6 @@
     <t>Explanations columns C-H:</t>
   </si>
   <si>
-    <t>depending on the filter matrix scenario these sector rows + columns are set zero and thus neither output nor receive anything</t>
-  </si>
-  <si>
     <t>these sectors are the extension sectors; in WIO-MFA and Ghosh-IO AMC these 'material sectors' (column D) do not receive input from 'products sectors' (column F-H)</t>
   </si>
   <si>
@@ -2695,6 +2725,195 @@
   </si>
   <si>
     <t>Plastics material and resin manufacturing+Synthetic rubber and artificial and synthetic fibers and filaments manufacturing</t>
+  </si>
+  <si>
+    <t>The tab 'mass_&amp;_aggreg filter' contains the overarching filter matrix which provides settings for three operations:</t>
+  </si>
+  <si>
+    <t>depending on the mass filter scenario these sector rows + columns are set zero and thus neither output nor receive anything</t>
+  </si>
+  <si>
+    <t>The tab 'yield' contains the yield matrix for WIO-MFA (all empty cells are set to 100% yield in code)</t>
+  </si>
+  <si>
+    <t>Match Exiobase transaction yields to USA table sectors</t>
+  </si>
+  <si>
+    <t>EXIOBASE yield table (cells highlighted in blue are used)</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p21.1</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>p35</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t>p45</t>
+  </si>
+  <si>
+    <t>Textiles (17)</t>
+  </si>
+  <si>
+    <t>Wearing apparel; furs (18)</t>
+  </si>
+  <si>
+    <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, except machinery and equipment (28)</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c. (29)</t>
+  </si>
+  <si>
+    <t>Office machinery and computers (30)</t>
+  </si>
+  <si>
+    <t>Electrical machinery and apparatus n.e.c. (31)</t>
+  </si>
+  <si>
+    <t>Radio, television and communication equipment and apparatus (32)</t>
+  </si>
+  <si>
+    <t>Medical, precision and optical instruments, watches and clocks (33)</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers (34)</t>
+  </si>
+  <si>
+    <t>Other transport equipment (35)</t>
+  </si>
+  <si>
+    <t>Furniture; other manufactured goods n.e.c. (36)</t>
+  </si>
+  <si>
+    <t>Construction work (45)</t>
+  </si>
+  <si>
+    <t>p24.a</t>
+  </si>
+  <si>
+    <t>Plastics, basic</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products (25)</t>
+  </si>
+  <si>
+    <t>p26.a</t>
+  </si>
+  <si>
+    <t>Glass and glass products</t>
+  </si>
+  <si>
+    <t>p26.b</t>
+  </si>
+  <si>
+    <t>Ceramic goods</t>
+  </si>
+  <si>
+    <t>p27.a</t>
+  </si>
+  <si>
+    <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
+  </si>
+  <si>
+    <t>p27.41</t>
+  </si>
+  <si>
+    <t>Precious metals</t>
+  </si>
+  <si>
+    <t>p27.42</t>
+  </si>
+  <si>
+    <t>Aluminium and aluminium products</t>
+  </si>
+  <si>
+    <t>p27.43</t>
+  </si>
+  <si>
+    <t>Lead, zinc and tin and products thereof</t>
+  </si>
+  <si>
+    <t>p27.44</t>
+  </si>
+  <si>
+    <t>Copper products</t>
+  </si>
+  <si>
+    <t>p27.45</t>
+  </si>
+  <si>
+    <t>Other non-ferrous metal products</t>
+  </si>
+  <si>
+    <t>p27.5</t>
+  </si>
+  <si>
+    <t>Foundry work services</t>
+  </si>
+  <si>
+    <t>USA yield table</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Furniture &amp; other manuf. goods</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Plastics</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2924,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2741,8 +2960,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2791,8 +3026,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2895,12 +3142,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2957,6 +3284,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3245,80 +3612,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A54268-861F-4043-98F0-4D98CA0CE053}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>414</v>
-      </c>
       <c r="D10" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>402</v>
       </c>
       <c r="D12" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -3326,8 +3693,13 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>840</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3338,20 +3710,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D228" sqref="D228:G228"/>
+      <selection pane="bottomRight" activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="26"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>393</v>
       </c>
@@ -3360,7 +3732,7 @@
       </c>
       <c r="G1" s="20"/>
       <c r="I1" s="31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
@@ -3380,15 +3752,15 @@
       <c r="Y1" s="31"/>
       <c r="Z1" s="31"/>
     </row>
-    <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="133.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>816</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>389</v>
@@ -3400,7 +3772,7 @@
         <v>401</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>400</v>
@@ -3412,13 +3784,13 @@
         <v>408</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>809</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>810</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>410</v>
@@ -3451,7 +3823,7 @@
         <v>398</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>392</v>
@@ -3460,15 +3832,15 @@
         <v>395</v>
       </c>
       <c r="AA2" s="28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AB2" s="28" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -3486,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -3554,9 +3926,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -3642,9 +4014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -3730,9 +4102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -3818,9 +4190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
@@ -3906,9 +4278,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
@@ -3994,9 +4366,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>6</v>
@@ -4082,9 +4454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
@@ -4170,9 +4542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
@@ -4258,9 +4630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -4346,9 +4718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>10</v>
@@ -4366,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -4434,9 +4806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -4522,9 +4894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>12</v>
@@ -4610,9 +4982,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>13</v>
@@ -4630,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -4698,9 +5070,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>14</v>
@@ -4786,9 +5158,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>15</v>
@@ -4806,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -4874,9 +5246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>16</v>
@@ -4962,9 +5334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>17</v>
@@ -4982,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -5050,9 +5422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>18</v>
@@ -5138,9 +5510,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>19</v>
@@ -5226,9 +5598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -5314,9 +5686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -5402,9 +5774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>22</v>
@@ -5490,9 +5862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>23</v>
@@ -5578,9 +5950,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>24</v>
@@ -5666,9 +6038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>25</v>
@@ -5754,9 +6126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>26</v>
@@ -5774,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -5842,9 +6214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>27</v>
@@ -5862,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -5930,9 +6302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>28</v>
@@ -6018,9 +6390,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>29</v>
@@ -6106,9 +6478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>30</v>
@@ -6194,9 +6566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>31</v>
@@ -6282,9 +6654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>32</v>
@@ -6370,9 +6742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>33</v>
@@ -6458,9 +6830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>34</v>
@@ -6546,9 +6918,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>35</v>
@@ -6634,12 +7006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -6654,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -6722,9 +7094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>36</v>
@@ -6742,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -6810,9 +7182,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>37</v>
@@ -6898,9 +7270,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>38</v>
@@ -6986,9 +7358,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>39</v>
@@ -7074,9 +7446,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>40</v>
@@ -7094,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -7162,9 +7534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>41</v>
@@ -7182,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -7250,9 +7622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>42</v>
@@ -7270,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -7338,9 +7710,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>43</v>
@@ -7426,9 +7798,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>44</v>
@@ -7514,9 +7886,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>45</v>
@@ -7602,9 +7974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>46</v>
@@ -7690,9 +8062,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>47</v>
@@ -7778,9 +8150,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>48</v>
@@ -7798,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -7866,9 +8238,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>49</v>
@@ -7886,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -7954,12 +8326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -8042,12 +8414,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -8062,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -8130,9 +8502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>50</v>
@@ -8150,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -8218,9 +8590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>51</v>
@@ -8238,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -8306,9 +8678,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>52</v>
@@ -8394,9 +8766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>53</v>
@@ -8414,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -8482,9 +8854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>54</v>
@@ -8570,9 +8942,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>55</v>
@@ -8590,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -8658,9 +9030,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>56</v>
@@ -8678,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -8746,9 +9118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>57</v>
@@ -8834,9 +9206,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>58</v>
@@ -8922,9 +9294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>59</v>
@@ -9010,9 +9382,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>60</v>
@@ -9098,9 +9470,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>61</v>
@@ -9186,9 +9558,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>62</v>
@@ -9274,9 +9646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>63</v>
@@ -9362,9 +9734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>64</v>
@@ -9450,9 +9822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>65</v>
@@ -9538,9 +9910,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>66</v>
@@ -9626,9 +9998,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>67</v>
@@ -9714,9 +10086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>68</v>
@@ -9734,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -9802,9 +10174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>69</v>
@@ -9822,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -9890,9 +10262,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>70</v>
@@ -9978,9 +10350,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>71</v>
@@ -9998,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -10066,9 +10438,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>72</v>
@@ -10154,9 +10526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>73</v>
@@ -10242,9 +10614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>74</v>
@@ -10330,9 +10702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>75</v>
@@ -10418,9 +10790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>76</v>
@@ -10506,9 +10878,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>77</v>
@@ -10594,9 +10966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>78</v>
@@ -10682,9 +11054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>79</v>
@@ -10770,9 +11142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>80</v>
@@ -10858,9 +11230,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>81</v>
@@ -10946,9 +11318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>82</v>
@@ -11034,9 +11406,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>83</v>
@@ -11122,9 +11494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>84</v>
@@ -11210,9 +11582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>85</v>
@@ -11298,9 +11670,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>86</v>
@@ -11386,9 +11758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>87</v>
@@ -11474,9 +11846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>88</v>
@@ -11562,9 +11934,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>89</v>
@@ -11650,9 +12022,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>90</v>
@@ -11738,9 +12110,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>91</v>
@@ -11826,9 +12198,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>92</v>
@@ -11846,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -11914,9 +12286,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>93</v>
@@ -11934,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -12002,9 +12374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>94</v>
@@ -12090,9 +12462,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>95</v>
@@ -12178,9 +12550,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>96</v>
@@ -12266,9 +12638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>97</v>
@@ -12354,9 +12726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>98</v>
@@ -12442,9 +12814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>99</v>
@@ -12530,9 +12902,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>100</v>
@@ -12618,9 +12990,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>101</v>
@@ -12706,9 +13078,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>102</v>
@@ -12794,9 +13166,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>103</v>
@@ -12882,9 +13254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>104</v>
@@ -12970,9 +13342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>105</v>
@@ -13058,9 +13430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>106</v>
@@ -13146,9 +13518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>107</v>
@@ -13234,9 +13606,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>108</v>
@@ -13322,9 +13694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>109</v>
@@ -13342,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -13410,9 +13782,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>110</v>
@@ -13498,9 +13870,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>111</v>
@@ -13586,9 +13958,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>112</v>
@@ -13674,9 +14046,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>113</v>
@@ -13762,9 +14134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>114</v>
@@ -13782,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -13850,9 +14222,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>115</v>
@@ -13938,9 +14310,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>116</v>
@@ -14026,9 +14398,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>117</v>
@@ -14114,9 +14486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>118</v>
@@ -14202,9 +14574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>119</v>
@@ -14290,9 +14662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>120</v>
@@ -14378,9 +14750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>121</v>
@@ -14466,9 +14838,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>122</v>
@@ -14554,9 +14926,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>123</v>
@@ -14642,9 +15014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>124</v>
@@ -14730,9 +15102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>125</v>
@@ -14818,9 +15190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>126</v>
@@ -14906,9 +15278,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>127</v>
@@ -14994,9 +15366,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>128</v>
@@ -15082,9 +15454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>129</v>
@@ -15170,9 +15542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>130</v>
@@ -15258,9 +15630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>131</v>
@@ -15346,9 +15718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>132</v>
@@ -15434,9 +15806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>133</v>
@@ -15522,9 +15894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>134</v>
@@ -15610,9 +15982,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>135</v>
@@ -15698,9 +16070,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>136</v>
@@ -15786,9 +16158,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>137</v>
@@ -15874,9 +16246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>138</v>
@@ -15894,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
@@ -15962,9 +16334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>139</v>
@@ -16050,9 +16422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>140</v>
@@ -16138,9 +16510,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>141</v>
@@ -16226,9 +16598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>142</v>
@@ -16314,9 +16686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>143</v>
@@ -16402,9 +16774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>144</v>
@@ -16490,9 +16862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>145</v>
@@ -16578,9 +16950,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>146</v>
@@ -16666,9 +17038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>147</v>
@@ -16754,9 +17126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>148</v>
@@ -16842,9 +17214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>149</v>
@@ -16930,9 +17302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>150</v>
@@ -17018,9 +17390,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>151</v>
@@ -17038,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
@@ -17106,9 +17478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>152</v>
@@ -17194,9 +17566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>153</v>
@@ -17282,9 +17654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>154</v>
@@ -17370,9 +17742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>155</v>
@@ -17458,9 +17830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>156</v>
@@ -17478,7 +17850,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
@@ -17546,9 +17918,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>157</v>
@@ -17634,9 +18006,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>158</v>
@@ -17722,9 +18094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>159</v>
@@ -17810,9 +18182,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>160</v>
@@ -17898,9 +18270,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>161</v>
@@ -17986,9 +18358,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>162</v>
@@ -18074,9 +18446,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>163</v>
@@ -18162,9 +18534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>164</v>
@@ -18250,9 +18622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>165</v>
@@ -18338,9 +18710,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>166</v>
@@ -18426,9 +18798,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>167</v>
@@ -18514,9 +18886,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>168</v>
@@ -18602,9 +18974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>169</v>
@@ -18690,9 +19062,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>170</v>
@@ -18778,9 +19150,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>171</v>
@@ -18866,9 +19238,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>172</v>
@@ -18954,9 +19326,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>173</v>
@@ -19042,9 +19414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>174</v>
@@ -19130,9 +19502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>175</v>
@@ -19218,9 +19590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>176</v>
@@ -19306,9 +19678,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>177</v>
@@ -19326,7 +19698,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -19394,9 +19766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>178</v>
@@ -19482,9 +19854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>179</v>
@@ -19570,9 +19942,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>180</v>
@@ -19658,9 +20030,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>181</v>
@@ -19746,9 +20118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>182</v>
@@ -19834,9 +20206,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>183</v>
@@ -19922,9 +20294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>184</v>
@@ -20010,9 +20382,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>185</v>
@@ -20098,9 +20470,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>186</v>
@@ -20186,9 +20558,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>187</v>
@@ -20274,9 +20646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>188</v>
@@ -20362,9 +20734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>189</v>
@@ -20450,9 +20822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>190</v>
@@ -20538,9 +20910,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>191</v>
@@ -20626,9 +20998,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>192</v>
@@ -20714,9 +21086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>193</v>
@@ -20802,9 +21174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>194</v>
@@ -20890,9 +21262,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>195</v>
@@ -20978,9 +21350,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>196</v>
@@ -21066,9 +21438,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>197</v>
@@ -21154,9 +21526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>198</v>
@@ -21242,9 +21614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>199</v>
@@ -21330,9 +21702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>200</v>
@@ -21418,9 +21790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>201</v>
@@ -21506,9 +21878,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>202</v>
@@ -21594,9 +21966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>203</v>
@@ -21682,9 +22054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>204</v>
@@ -21770,9 +22142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>205</v>
@@ -21858,9 +22230,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>206</v>
@@ -21946,9 +22318,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>207</v>
@@ -22034,9 +22406,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>208</v>
@@ -22122,9 +22494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>209</v>
@@ -22210,9 +22582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>210</v>
@@ -22298,9 +22670,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>211</v>
@@ -22386,9 +22758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>212</v>
@@ -22474,9 +22846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>213</v>
@@ -22562,9 +22934,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B220" s="10" t="s">
         <v>214</v>
@@ -22650,9 +23022,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>215</v>
@@ -22738,9 +23110,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>216</v>
@@ -22826,9 +23198,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>217</v>
@@ -22914,9 +23286,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>218</v>
@@ -23002,9 +23374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>219</v>
@@ -23090,9 +23462,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B226" s="10" t="s">
         <v>220</v>
@@ -23178,9 +23550,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B227" s="10" t="s">
         <v>221</v>
@@ -23198,7 +23570,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
@@ -23266,12 +23638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="29" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B228" s="29" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -23354,9 +23726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B229" s="10" t="s">
         <v>222</v>
@@ -23442,9 +23814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>223</v>
@@ -23530,9 +23902,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>224</v>
@@ -23618,9 +23990,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>225</v>
@@ -23706,9 +24078,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>226</v>
@@ -23794,9 +24166,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>227</v>
@@ -23882,9 +24254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>228</v>
@@ -23902,7 +24274,7 @@
         <v>1</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H235" s="3">
         <v>0</v>
@@ -23970,9 +24342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>229</v>
@@ -24058,12 +24430,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B237" s="29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -24078,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
@@ -24146,9 +24518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B238" s="10" t="s">
         <v>230</v>
@@ -24234,9 +24606,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>231</v>
@@ -24254,7 +24626,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
@@ -24322,9 +24694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>232</v>
@@ -24410,9 +24782,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>233</v>
@@ -24430,7 +24802,7 @@
         <v>1</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H241" s="3">
         <v>0</v>
@@ -24498,9 +24870,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>234</v>
@@ -24586,9 +24958,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>235</v>
@@ -24674,12 +25046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="29" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B244" s="29" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -24694,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
@@ -24762,9 +25134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B245" s="10" t="s">
         <v>236</v>
@@ -24782,7 +25154,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
@@ -24850,9 +25222,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>237</v>
@@ -24938,9 +25310,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B247" s="10" t="s">
         <v>238</v>
@@ -24958,7 +25330,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H247" s="3">
         <v>0</v>
@@ -25026,9 +25398,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B248" s="10" t="s">
         <v>239</v>
@@ -25046,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
@@ -25114,9 +25486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B249" s="10" t="s">
         <v>240</v>
@@ -25202,9 +25574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>241</v>
@@ -25290,9 +25662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B251" s="10" t="s">
         <v>242</v>
@@ -25378,9 +25750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>243</v>
@@ -25466,9 +25838,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B253" s="10" t="s">
         <v>244</v>
@@ -25554,9 +25926,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B254" s="10" t="s">
         <v>245</v>
@@ -25642,9 +26014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B255" s="10" t="s">
         <v>246</v>
@@ -25662,7 +26034,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
@@ -25730,9 +26102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>247</v>
@@ -25818,9 +26190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B257" s="10" t="s">
         <v>248</v>
@@ -25906,9 +26278,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B258" s="10" t="s">
         <v>249</v>
@@ -25926,7 +26298,7 @@
         <v>1</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
@@ -25994,9 +26366,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B259" s="10" t="s">
         <v>250</v>
@@ -26014,7 +26386,7 @@
         <v>1</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H259" s="3">
         <v>0</v>
@@ -26082,9 +26454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B260" s="10" t="s">
         <v>251</v>
@@ -26170,9 +26542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B261" s="10" t="s">
         <v>252</v>
@@ -26258,9 +26630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B262" s="10" t="s">
         <v>253</v>
@@ -26278,7 +26650,7 @@
         <v>0</v>
       </c>
       <c r="G262" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H262" s="3">
         <v>1</v>
@@ -26346,9 +26718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B263" s="10" t="s">
         <v>254</v>
@@ -26434,9 +26806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B264" s="10" t="s">
         <v>255</v>
@@ -26522,9 +26894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>256</v>
@@ -26610,9 +26982,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B266" s="10" t="s">
         <v>257</v>
@@ -26698,9 +27070,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>258</v>
@@ -26786,9 +27158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>259</v>
@@ -26874,9 +27246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B269" s="10" t="s">
         <v>260</v>
@@ -26962,9 +27334,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B270" s="10" t="s">
         <v>261</v>
@@ -27050,9 +27422,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B271" s="10" t="s">
         <v>262</v>
@@ -27138,9 +27510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B272" s="10" t="s">
         <v>263</v>
@@ -27226,9 +27598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>264</v>
@@ -27314,9 +27686,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>265</v>
@@ -27402,9 +27774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>266</v>
@@ -27490,9 +27862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B276" s="10" t="s">
         <v>267</v>
@@ -27578,9 +27950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>268</v>
@@ -27664,9 +28036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B278" s="10" t="s">
         <v>269</v>
@@ -27752,9 +28124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>270</v>
@@ -27840,9 +28212,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B280" s="10" t="s">
         <v>271</v>
@@ -27928,9 +28300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B281" s="10" t="s">
         <v>272</v>
@@ -28016,9 +28388,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>273</v>
@@ -28104,9 +28476,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B283" s="10" t="s">
         <v>274</v>
@@ -28192,9 +28564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>275</v>
@@ -28280,9 +28652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B285" s="10" t="s">
         <v>276</v>
@@ -28368,9 +28740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>277</v>
@@ -28456,9 +28828,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B287" s="10" t="s">
         <v>278</v>
@@ -28544,9 +28916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B288" s="10" t="s">
         <v>279</v>
@@ -28632,9 +29004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B289" s="10" t="s">
         <v>280</v>
@@ -28720,9 +29092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B290" s="10" t="s">
         <v>281</v>
@@ -28808,9 +29180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B291" s="10" t="s">
         <v>282</v>
@@ -28896,9 +29268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B292" s="10" t="s">
         <v>283</v>
@@ -28984,9 +29356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B293" s="10" t="s">
         <v>284</v>
@@ -29072,9 +29444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B294" s="10" t="s">
         <v>285</v>
@@ -29160,9 +29532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>286</v>
@@ -29248,9 +29620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B296" s="10" t="s">
         <v>287</v>
@@ -29336,9 +29708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B297" s="10" t="s">
         <v>288</v>
@@ -29424,9 +29796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B298" s="10" t="s">
         <v>289</v>
@@ -29512,9 +29884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B299" s="10" t="s">
         <v>290</v>
@@ -29600,9 +29972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B300" s="10" t="s">
         <v>291</v>
@@ -29688,9 +30060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>292</v>
@@ -29776,9 +30148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B302" s="10" t="s">
         <v>293</v>
@@ -29864,9 +30236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>294</v>
@@ -29952,9 +30324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B304" s="10" t="s">
         <v>295</v>
@@ -30040,9 +30412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>296</v>
@@ -30128,9 +30500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B306" s="10" t="s">
         <v>297</v>
@@ -30216,9 +30588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B307" s="10" t="s">
         <v>298</v>
@@ -30304,9 +30676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B308" s="10" t="s">
         <v>299</v>
@@ -30392,9 +30764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B309" s="10" t="s">
         <v>300</v>
@@ -30480,9 +30852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B310" s="10" t="s">
         <v>301</v>
@@ -30568,9 +30940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B311" s="10" t="s">
         <v>302</v>
@@ -30656,9 +31028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B312" s="10" t="s">
         <v>303</v>
@@ -30744,9 +31116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B313" s="10" t="s">
         <v>304</v>
@@ -30832,9 +31204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B314" s="10" t="s">
         <v>305</v>
@@ -30920,9 +31292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B315" s="10" t="s">
         <v>306</v>
@@ -31008,9 +31380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B316" s="10" t="s">
         <v>307</v>
@@ -31096,9 +31468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B317" s="10" t="s">
         <v>308</v>
@@ -31116,7 +31488,7 @@
         <v>0</v>
       </c>
       <c r="G317" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H317" s="3">
         <v>0</v>
@@ -31184,9 +31556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B318" s="10" t="s">
         <v>309</v>
@@ -31272,9 +31644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>310</v>
@@ -31360,9 +31732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B320" s="10" t="s">
         <v>311</v>
@@ -31448,9 +31820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B321" s="10" t="s">
         <v>312</v>
@@ -31536,9 +31908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B322" s="10" t="s">
         <v>313</v>
@@ -31624,9 +31996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>314</v>
@@ -31712,9 +32084,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B324" s="10" t="s">
         <v>315</v>
@@ -31800,9 +32172,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B325" s="10" t="s">
         <v>316</v>
@@ -31820,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="G325" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H325" s="3">
         <v>0</v>
@@ -31888,9 +32260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>317</v>
@@ -31976,9 +32348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>318</v>
@@ -32064,9 +32436,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B328" s="10" t="s">
         <v>319</v>
@@ -32152,9 +32524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>320</v>
@@ -32172,7 +32544,7 @@
         <v>0</v>
       </c>
       <c r="G329" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H329" s="3">
         <v>0</v>
@@ -32240,9 +32612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>321</v>
@@ -32328,9 +32700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B331" s="10" t="s">
         <v>322</v>
@@ -32416,9 +32788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B332" s="10" t="s">
         <v>323</v>
@@ -32436,7 +32808,7 @@
         <v>0</v>
       </c>
       <c r="G332" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H332" s="3">
         <v>0</v>
@@ -32504,9 +32876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>324</v>
@@ -32524,7 +32896,7 @@
         <v>0</v>
       </c>
       <c r="G333" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H333" s="3">
         <v>0</v>
@@ -32592,9 +32964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B334" s="10" t="s">
         <v>325</v>
@@ -32680,9 +33052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B335" s="10" t="s">
         <v>326</v>
@@ -32768,9 +33140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B336" s="10" t="s">
         <v>327</v>
@@ -32856,9 +33228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B337" s="10" t="s">
         <v>328</v>
@@ -32944,9 +33316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B338" s="10" t="s">
         <v>329</v>
@@ -33032,9 +33404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B339" s="10" t="s">
         <v>330</v>
@@ -33052,7 +33424,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H339" s="3">
         <v>0</v>
@@ -33120,9 +33492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B340" s="10" t="s">
         <v>331</v>
@@ -33140,7 +33512,7 @@
         <v>0</v>
       </c>
       <c r="G340" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H340" s="3">
         <v>0</v>
@@ -33208,9 +33580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B341" s="10" t="s">
         <v>332</v>
@@ -33296,9 +33668,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B342" s="10" t="s">
         <v>333</v>
@@ -33384,9 +33756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B343" s="10" t="s">
         <v>334</v>
@@ -33404,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="G343" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H343" s="3">
         <v>0</v>
@@ -33472,9 +33844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>335</v>
@@ -33492,7 +33864,7 @@
         <v>0</v>
       </c>
       <c r="G344" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H344" s="3">
         <v>0</v>
@@ -33560,9 +33932,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B345" s="10" t="s">
         <v>336</v>
@@ -33648,9 +34020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B346" s="10" t="s">
         <v>337</v>
@@ -33736,9 +34108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B347" s="10" t="s">
         <v>338</v>
@@ -33824,9 +34196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B348" s="10" t="s">
         <v>339</v>
@@ -33912,9 +34284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B349" s="10" t="s">
         <v>340</v>
@@ -34000,9 +34372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B350" s="10" t="s">
         <v>341</v>
@@ -34088,9 +34460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B351" s="10" t="s">
         <v>342</v>
@@ -34176,9 +34548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B352" s="10" t="s">
         <v>343</v>
@@ -34264,9 +34636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B353" s="10" t="s">
         <v>344</v>
@@ -34352,9 +34724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B354" s="10" t="s">
         <v>345</v>
@@ -34440,9 +34812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B355" s="10" t="s">
         <v>346</v>
@@ -34528,9 +34900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>347</v>
@@ -34616,9 +34988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>348</v>
@@ -34704,9 +35076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>349</v>
@@ -34792,9 +35164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>350</v>
@@ -34880,9 +35252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>351</v>
@@ -34968,9 +35340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>352</v>
@@ -35056,9 +35428,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>353</v>
@@ -35144,9 +35516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B363" s="10" t="s">
         <v>354</v>
@@ -35232,9 +35604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>355</v>
@@ -35320,9 +35692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B365" s="10" t="s">
         <v>356</v>
@@ -35408,9 +35780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B366" s="10" t="s">
         <v>357</v>
@@ -35496,9 +35868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>358</v>
@@ -35584,9 +35956,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B368" s="10" t="s">
         <v>359</v>
@@ -35672,9 +36044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>360</v>
@@ -35760,9 +36132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>361</v>
@@ -35848,9 +36220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B371" s="10" t="s">
         <v>362</v>
@@ -35936,9 +36308,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B372" s="10" t="s">
         <v>363</v>
@@ -36024,9 +36396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B373" s="10" t="s">
         <v>364</v>
@@ -36112,9 +36484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B374" s="10" t="s">
         <v>365</v>
@@ -36200,9 +36572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B375" s="10" t="s">
         <v>366</v>
@@ -36288,9 +36660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B376" s="10" t="s">
         <v>367</v>
@@ -36376,9 +36748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B377" s="10" t="s">
         <v>368</v>
@@ -36464,9 +36836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B378" s="10" t="s">
         <v>369</v>
@@ -36552,9 +36924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B379" s="10" t="s">
         <v>370</v>
@@ -36640,9 +37012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B380" s="10" t="s">
         <v>371</v>
@@ -36660,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="G380" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H380" s="3">
         <v>0</v>
@@ -36728,9 +37100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B381" s="10" t="s">
         <v>372</v>
@@ -36816,9 +37188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B382" s="10" t="s">
         <v>373</v>
@@ -36904,9 +37276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>374</v>
@@ -36992,9 +37364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B384" s="10" t="s">
         <v>375</v>
@@ -37080,9 +37452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B385" s="10" t="s">
         <v>376</v>
@@ -37168,9 +37540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B386" s="10" t="s">
         <v>377</v>
@@ -37256,9 +37628,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>378</v>
@@ -37344,9 +37716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>379</v>
@@ -37432,9 +37804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>380</v>
@@ -37520,9 +37892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>381</v>
@@ -37608,9 +37980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B391" s="10" t="s">
         <v>382</v>
@@ -37696,9 +38068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>383</v>
@@ -37784,9 +38156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B393" s="10" t="s">
         <v>384</v>
@@ -37870,9 +38242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B394" s="10" t="s">
         <v>385</v>
@@ -37956,9 +38328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>386</v>
@@ -38042,9 +38414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B396" s="10" t="s">
         <v>387</v>
@@ -38128,9 +38500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B397" s="10" t="s">
         <v>388</v>
@@ -38216,9 +38588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>403</v>
@@ -38236,7 +38608,7 @@
         <v>0</v>
       </c>
       <c r="G398" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H398" s="3">
         <v>0</v>
@@ -38304,9 +38676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>404</v>
@@ -38324,7 +38696,7 @@
         <v>0</v>
       </c>
       <c r="G399" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H399" s="3">
         <v>0</v>
@@ -38392,9 +38764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B400" s="10" t="s">
         <v>405</v>
@@ -38480,9 +38852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B401" s="10" t="s">
         <v>406</v>
@@ -39060,4 +39432,3559 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC39EC2A-0FFD-42DA-96DC-50716F592FC9}">
+  <dimension ref="A2:U50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="20" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>841</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0</v>
+      </c>
+      <c r="P8" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>872</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="P9" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>874</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0</v>
+      </c>
+      <c r="E10" s="43">
+        <v>0</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>876</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="P11" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43">
+        <v>0</v>
+      </c>
+      <c r="J12" s="43">
+        <v>0</v>
+      </c>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+      <c r="L12" s="43">
+        <v>0</v>
+      </c>
+      <c r="M12" s="43">
+        <v>0</v>
+      </c>
+      <c r="N12" s="43">
+        <v>0</v>
+      </c>
+      <c r="O12" s="43">
+        <v>0</v>
+      </c>
+      <c r="P12" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>879</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>880</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0.92631909366008403</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J13" s="43">
+        <v>0.89004126278255302</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="L13" s="43">
+        <v>0.88642733207046298</v>
+      </c>
+      <c r="M13" s="43">
+        <v>0.88129071613306198</v>
+      </c>
+      <c r="N13" s="44">
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="O13" s="44">
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="P13" s="44">
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="Q13" s="49">
+        <v>0.94166040230902204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>881</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>882</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="N14" s="43">
+        <v>0</v>
+      </c>
+      <c r="O14" s="43">
+        <v>0</v>
+      </c>
+      <c r="P14" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>884</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0.98800605724956503</v>
+      </c>
+      <c r="I15" s="44">
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="44">
+        <v>1</v>
+      </c>
+      <c r="L15" s="43">
+        <v>1</v>
+      </c>
+      <c r="M15" s="43">
+        <v>1</v>
+      </c>
+      <c r="N15" s="44">
+        <v>1</v>
+      </c>
+      <c r="O15" s="44">
+        <v>0.999156412809172</v>
+      </c>
+      <c r="P15" s="44">
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="Q15" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>886</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0</v>
+      </c>
+      <c r="H16" s="43">
+        <v>0.93196078849751895</v>
+      </c>
+      <c r="I16" s="44">
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J16" s="43">
+        <v>0.92506224740253995</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="L16" s="43">
+        <v>0.95784981126300694</v>
+      </c>
+      <c r="M16" s="43">
+        <v>0.92480067633781304</v>
+      </c>
+      <c r="N16" s="44">
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="O16" s="44">
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="P16" s="44">
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="Q16" s="49">
+        <v>0.95200977870694903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>887</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>888</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0</v>
+      </c>
+      <c r="G17" s="43">
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
+        <v>0.99766367004677803</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J17" s="43">
+        <v>1</v>
+      </c>
+      <c r="K17" s="44">
+        <v>1</v>
+      </c>
+      <c r="L17" s="43">
+        <v>0.99998577931585997</v>
+      </c>
+      <c r="M17" s="43">
+        <v>0.99987357745073902</v>
+      </c>
+      <c r="N17" s="44">
+        <v>1</v>
+      </c>
+      <c r="O17" s="44">
+        <v>1</v>
+      </c>
+      <c r="P17" s="44">
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="Q17" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>890</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0</v>
+      </c>
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0</v>
+      </c>
+      <c r="G18" s="43">
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <v>0.99990715571585498</v>
+      </c>
+      <c r="I18" s="44">
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J18" s="43">
+        <v>0.999829857254386</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="L18" s="43">
+        <v>0.99991695252840795</v>
+      </c>
+      <c r="M18" s="43">
+        <v>0.99969184027675295</v>
+      </c>
+      <c r="N18" s="44">
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="O18" s="44">
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="P18" s="44">
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="Q18" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>891</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>892</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0</v>
+      </c>
+      <c r="G19" s="43">
+        <v>0</v>
+      </c>
+      <c r="H19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="43">
+        <v>0</v>
+      </c>
+      <c r="O19" s="43">
+        <v>0</v>
+      </c>
+      <c r="P19" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>861</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <v>0</v>
+      </c>
+      <c r="H20" s="43">
+        <v>0.93906914981729195</v>
+      </c>
+      <c r="I20" s="43">
+        <v>1</v>
+      </c>
+      <c r="J20" s="43">
+        <v>1</v>
+      </c>
+      <c r="K20" s="43">
+        <v>1</v>
+      </c>
+      <c r="L20" s="43">
+        <v>1</v>
+      </c>
+      <c r="M20" s="43">
+        <v>1</v>
+      </c>
+      <c r="N20" s="43">
+        <v>1</v>
+      </c>
+      <c r="O20" s="43">
+        <v>1</v>
+      </c>
+      <c r="P20" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="45"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0</v>
+      </c>
+      <c r="E22" s="52">
+        <v>0</v>
+      </c>
+      <c r="F22" s="52">
+        <v>0</v>
+      </c>
+      <c r="G22" s="52">
+        <v>0</v>
+      </c>
+      <c r="H22" s="52">
+        <v>0.99919911626622504</v>
+      </c>
+      <c r="I22" s="52">
+        <v>0.87677531783260598</v>
+      </c>
+      <c r="J22" s="52">
+        <v>0.99934833441944304</v>
+      </c>
+      <c r="K22" s="52">
+        <v>0.99081651699607998</v>
+      </c>
+      <c r="L22" s="52">
+        <v>0.99984188056712198</v>
+      </c>
+      <c r="M22" s="52">
+        <v>0.95856711264566297</v>
+      </c>
+      <c r="N22" s="52">
+        <v>0.97927689954939101</v>
+      </c>
+      <c r="O22" s="52">
+        <v>0.98477251797624299</v>
+      </c>
+      <c r="P22" s="43">
+        <v>0.99956726608327695</v>
+      </c>
+      <c r="Q22" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="D23" s="51">
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>0</v>
+      </c>
+      <c r="F23" s="52">
+        <v>0</v>
+      </c>
+      <c r="G23" s="52">
+        <v>0</v>
+      </c>
+      <c r="H23" s="52">
+        <v>1</v>
+      </c>
+      <c r="I23" s="52">
+        <v>0.99483779676117601</v>
+      </c>
+      <c r="J23" s="52">
+        <v>0.93729264738237394</v>
+      </c>
+      <c r="K23" s="52">
+        <v>1</v>
+      </c>
+      <c r="L23" s="52">
+        <v>0.99980424661399503</v>
+      </c>
+      <c r="M23" s="52">
+        <v>1</v>
+      </c>
+      <c r="N23" s="52">
+        <v>1</v>
+      </c>
+      <c r="O23" s="52">
+        <v>1</v>
+      </c>
+      <c r="P23" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="53">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="D24" s="51">
+        <v>0</v>
+      </c>
+      <c r="E24" s="52">
+        <v>0</v>
+      </c>
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <v>0</v>
+      </c>
+      <c r="H24" s="52">
+        <v>1</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52">
+        <v>1</v>
+      </c>
+      <c r="K24" s="52">
+        <v>1</v>
+      </c>
+      <c r="L24" s="52">
+        <v>1</v>
+      </c>
+      <c r="M24" s="52">
+        <v>1</v>
+      </c>
+      <c r="N24" s="52">
+        <v>1</v>
+      </c>
+      <c r="O24" s="52">
+        <v>1</v>
+      </c>
+      <c r="P24" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="D25" s="51">
+        <v>0</v>
+      </c>
+      <c r="E25" s="52">
+        <v>0</v>
+      </c>
+      <c r="F25" s="52">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52">
+        <v>0</v>
+      </c>
+      <c r="H25" s="52">
+        <v>1</v>
+      </c>
+      <c r="I25" s="52">
+        <v>1</v>
+      </c>
+      <c r="J25" s="52">
+        <v>1</v>
+      </c>
+      <c r="K25" s="52">
+        <v>1</v>
+      </c>
+      <c r="L25" s="52">
+        <v>1</v>
+      </c>
+      <c r="M25" s="52">
+        <v>1</v>
+      </c>
+      <c r="N25" s="52">
+        <v>1</v>
+      </c>
+      <c r="O25" s="52">
+        <v>1</v>
+      </c>
+      <c r="P25" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="53">
+        <v>0.94234466577596099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0</v>
+      </c>
+      <c r="F26" s="52">
+        <v>0</v>
+      </c>
+      <c r="G26" s="52">
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
+        <v>1</v>
+      </c>
+      <c r="I26" s="52">
+        <v>1</v>
+      </c>
+      <c r="J26" s="52">
+        <v>1</v>
+      </c>
+      <c r="K26" s="52">
+        <v>1</v>
+      </c>
+      <c r="L26" s="52">
+        <v>1</v>
+      </c>
+      <c r="M26" s="52">
+        <v>1</v>
+      </c>
+      <c r="N26" s="52">
+        <v>1</v>
+      </c>
+      <c r="O26" s="52">
+        <v>1</v>
+      </c>
+      <c r="P26" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="D27" s="51">
+        <v>0</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0</v>
+      </c>
+      <c r="F27" s="52">
+        <v>0</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0</v>
+      </c>
+      <c r="H27" s="52">
+        <v>1</v>
+      </c>
+      <c r="I27" s="52">
+        <v>1</v>
+      </c>
+      <c r="J27" s="52">
+        <v>1</v>
+      </c>
+      <c r="K27" s="52">
+        <v>1</v>
+      </c>
+      <c r="L27" s="52">
+        <v>1</v>
+      </c>
+      <c r="M27" s="52">
+        <v>1</v>
+      </c>
+      <c r="N27" s="52">
+        <v>1</v>
+      </c>
+      <c r="O27" s="52">
+        <v>1</v>
+      </c>
+      <c r="P27" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="D28" s="51">
+        <v>0</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0</v>
+      </c>
+      <c r="F28" s="52">
+        <v>0</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0</v>
+      </c>
+      <c r="H28" s="52">
+        <v>1</v>
+      </c>
+      <c r="I28" s="52">
+        <v>1</v>
+      </c>
+      <c r="J28" s="52">
+        <v>1</v>
+      </c>
+      <c r="K28" s="52">
+        <v>1</v>
+      </c>
+      <c r="L28" s="52">
+        <v>1</v>
+      </c>
+      <c r="M28" s="52">
+        <v>1</v>
+      </c>
+      <c r="N28" s="52">
+        <v>1</v>
+      </c>
+      <c r="O28" s="52">
+        <v>1</v>
+      </c>
+      <c r="P28" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0</v>
+      </c>
+      <c r="E29" s="55">
+        <v>0</v>
+      </c>
+      <c r="F29" s="55">
+        <v>0</v>
+      </c>
+      <c r="G29" s="55">
+        <v>0</v>
+      </c>
+      <c r="H29" s="55">
+        <v>1</v>
+      </c>
+      <c r="I29" s="55">
+        <v>1</v>
+      </c>
+      <c r="J29" s="55">
+        <v>1</v>
+      </c>
+      <c r="K29" s="55">
+        <v>1</v>
+      </c>
+      <c r="L29" s="55">
+        <v>1</v>
+      </c>
+      <c r="M29" s="55">
+        <v>1</v>
+      </c>
+      <c r="N29" s="55">
+        <v>1</v>
+      </c>
+      <c r="O29" s="55">
+        <v>1</v>
+      </c>
+      <c r="P29" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="P30" s="58"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="59" t="s">
+        <v>894</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" t="s">
+        <v>410</v>
+      </c>
+      <c r="J34" t="s">
+        <v>411</v>
+      </c>
+      <c r="K34" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" t="s">
+        <v>391</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>895</v>
+      </c>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="Q34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>896</v>
+      </c>
+      <c r="D35" t="s">
+        <v>407</v>
+      </c>
+      <c r="E35" t="s">
+        <v>408</v>
+      </c>
+      <c r="F35" t="s">
+        <v>807</v>
+      </c>
+      <c r="G35" t="s">
+        <v>808</v>
+      </c>
+      <c r="H35" t="s">
+        <v>809</v>
+      </c>
+      <c r="I35" t="s">
+        <v>410</v>
+      </c>
+      <c r="J35" t="s">
+        <v>411</v>
+      </c>
+      <c r="K35" t="s">
+        <v>390</v>
+      </c>
+      <c r="L35" t="s">
+        <v>391</v>
+      </c>
+      <c r="M35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N35" t="s">
+        <v>412</v>
+      </c>
+      <c r="O35" t="s">
+        <v>396</v>
+      </c>
+      <c r="P35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>397</v>
+      </c>
+      <c r="R35" t="s">
+        <v>398</v>
+      </c>
+      <c r="S35" t="s">
+        <v>811</v>
+      </c>
+      <c r="T35" t="s">
+        <v>392</v>
+      </c>
+      <c r="U35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="B36" t="s">
+        <v>826</v>
+      </c>
+      <c r="C36" t="s">
+        <v>827</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61">
+        <f t="shared" ref="M36:O37" si="0">$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N36" s="61">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="O36" s="61">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="62"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="B37" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N37" s="64">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O37" s="64">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="65"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="B38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N38" s="64">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O38" s="64">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="65"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64">
+        <f>$K$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J39" s="64">
+        <f>$I$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="K39" s="64">
+        <f>$N$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L39" s="64">
+        <f>$O$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="M39" s="64">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="N39" s="64">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="O39" s="64">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="65"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B40" t="s">
+        <v>828</v>
+      </c>
+      <c r="C40" t="s">
+        <v>829</v>
+      </c>
+      <c r="D40" s="63">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E40" s="64">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F40" s="64">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G40" s="64">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H40" s="64">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I40" s="64">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J40" s="64">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K40" s="64">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L40" s="64">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M40" s="64">
+        <f t="shared" ref="M40:O40" si="1">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N40" s="64">
+        <f t="shared" si="1"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O40" s="64">
+        <f t="shared" si="1"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="65"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B41" t="s">
+        <v>830</v>
+      </c>
+      <c r="C41" t="s">
+        <v>831</v>
+      </c>
+      <c r="D41" s="63">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="64">
+        <f t="shared" ref="E41:F41" si="2">$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="64">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="64">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="64">
+        <f>$K$15</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="64">
+        <f>$I$15</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="K41" s="64">
+        <f>$N$15</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="64">
+        <f>$O$15</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="M41" s="64">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N41" s="64">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O41" s="64">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="65"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B42" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="63">
+        <f>$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E42" s="64">
+        <f t="shared" ref="E42:G42" si="3">$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F42" s="64">
+        <f t="shared" si="3"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G42" s="64">
+        <f t="shared" si="3"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H42" s="64">
+        <f>$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="I42" s="64">
+        <f>$K$16</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="J42" s="64">
+        <f>$I$16</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="K42" s="64">
+        <f>$N$16</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="L42" s="64">
+        <f>$O$16</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="M42" s="64">
+        <f>$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N42" s="64">
+        <f>$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O42" s="64">
+        <f>$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="65"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B43" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="63">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="64">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="64">
+        <f t="shared" ref="F43:G43" si="4">$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="64">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="64">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="64">
+        <f>$K$17</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="64">
+        <f>$I$17</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="K43" s="64">
+        <f>$N$17</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="64">
+        <f>$O$17</f>
+        <v>1</v>
+      </c>
+      <c r="M43" s="64">
+        <f>$P$17</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N43" s="64">
+        <f>$P$17</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O43" s="64">
+        <f>$P$17</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="65"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="63">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="64">
+        <f t="shared" ref="E44:F44" si="5">$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="64">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="64">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="64">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="64">
+        <f>$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J44" s="64">
+        <f>$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K44" s="64">
+        <f>$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L44" s="64">
+        <f>$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M44" s="64">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N44" s="64">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O44" s="64">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="65"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="63">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E45" s="64">
+        <f t="shared" ref="E45:G45" si="6">$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F45" s="64">
+        <f t="shared" si="6"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G45" s="64">
+        <f t="shared" si="6"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H45" s="64">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I45" s="64">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J45" s="64">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K45" s="64">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L45" s="64">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M45" s="64">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N45" s="64">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O45" s="64">
+        <f t="shared" ref="O45" si="7">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="65"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B46" t="s">
+        <v>468</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="63">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="64">
+        <f t="shared" ref="E46:G46" si="8">$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="64">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="64">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="64">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="64">
+        <f>$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J46" s="64">
+        <f>$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K46" s="64">
+        <f>$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L46" s="64">
+        <f>$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M46" s="64">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N46" s="64">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O46" s="64">
+        <f>$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="65"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="63">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E47" s="64">
+        <f t="shared" ref="E47:H49" si="9">$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F47" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G47" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H47" s="64">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I47" s="64">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J47" s="64">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K47" s="64">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L47" s="64">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M47" s="64">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N47" s="64">
+        <f>$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O47" s="64">
+        <f t="shared" ref="O47:O49" si="10">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="65"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B48" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="63">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E48" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F48" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G48" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H48" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I48" s="64">
+        <f t="shared" ref="I48:I49" si="11">$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J48" s="64">
+        <f t="shared" ref="J48:J49" si="12">$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K48" s="64">
+        <f t="shared" ref="K48:K49" si="13">$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L48" s="64">
+        <f t="shared" ref="L48:L49" si="14">$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M48" s="64">
+        <f t="shared" ref="M48:N49" si="15">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N48" s="64">
+        <f t="shared" si="15"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O48" s="64">
+        <f t="shared" si="10"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="65"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="B49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="63">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E49" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F49" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G49" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H49" s="64">
+        <f t="shared" si="9"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I49" s="64">
+        <f t="shared" si="11"/>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J49" s="64">
+        <f t="shared" si="12"/>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K49" s="64">
+        <f t="shared" si="13"/>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L49" s="64">
+        <f t="shared" si="14"/>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M49" s="64">
+        <f t="shared" si="15"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N49" s="64">
+        <f t="shared" si="15"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O49" s="64">
+        <f t="shared" si="10"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="65"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>900</v>
+      </c>
+      <c r="B50" t="s">
+        <v>836</v>
+      </c>
+      <c r="C50" t="s">
+        <v>837</v>
+      </c>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67">
+        <f>$K$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="J50" s="67">
+        <f>$I$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="K50" s="67">
+        <f>$N$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="L50" s="67">
+        <f>$O$9</f>
+        <v>0.8</v>
+      </c>
+      <c r="M50" s="67">
+        <f>$P$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="N50" s="67">
+        <f>$P$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="O50" s="67">
+        <f>$P$9</f>
+        <v>0.7</v>
+      </c>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67">
+        <f>$D$9</f>
+        <v>0.85</v>
+      </c>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="M34:O34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B31:C32 B8 B10:B11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEC8A3-CD53-4C80-AD86-F03C2696271C}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>exio_usa!B35</f>
+        <v>USA</v>
+      </c>
+      <c r="B1">
+        <f>exio_usa!C35</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>exio_usa!D35</f>
+        <v>Residential</v>
+      </c>
+      <c r="D1" t="str">
+        <f>exio_usa!E35</f>
+        <v>Non-Residential</v>
+      </c>
+      <c r="E1" t="str">
+        <f>exio_usa!F35</f>
+        <v>Other buildungs</v>
+      </c>
+      <c r="F1" t="str">
+        <f>exio_usa!G35</f>
+        <v>Infrastructure</v>
+      </c>
+      <c r="G1" t="str">
+        <f>exio_usa!H35</f>
+        <v>Other construction</v>
+      </c>
+      <c r="H1" t="str">
+        <f>exio_usa!I35</f>
+        <v>Electronic machinery</v>
+      </c>
+      <c r="I1" t="str">
+        <f>exio_usa!J35</f>
+        <v>Other machinery</v>
+      </c>
+      <c r="J1" t="str">
+        <f>exio_usa!K35</f>
+        <v>Motor vehicles</v>
+      </c>
+      <c r="K1" t="str">
+        <f>exio_usa!L35</f>
+        <v>Other transport equipment</v>
+      </c>
+      <c r="L1" t="str">
+        <f>exio_usa!M35</f>
+        <v>Household appliances</v>
+      </c>
+      <c r="M1" t="str">
+        <f>exio_usa!N35</f>
+        <v>Other consumer durables</v>
+      </c>
+      <c r="N1" t="str">
+        <f>exio_usa!O35</f>
+        <v>Furniture</v>
+      </c>
+      <c r="O1" t="str">
+        <f>exio_usa!P35</f>
+        <v>Extraction</v>
+      </c>
+      <c r="P1" t="str">
+        <f>exio_usa!Q35</f>
+        <v>Textiles</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>exio_usa!R35</f>
+        <v>Packaging</v>
+      </c>
+      <c r="R1" t="str">
+        <f>exio_usa!S35</f>
+        <v>Food products</v>
+      </c>
+      <c r="S1" t="str">
+        <f>exio_usa!T35</f>
+        <v>Products nec</v>
+      </c>
+      <c r="T1" t="str">
+        <f>exio_usa!U35</f>
+        <v>Services</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>exio_usa!B36</f>
+        <v>321100+321200</v>
+      </c>
+      <c r="B2" s="69" t="str">
+        <f>exio_usa!C36</f>
+        <v>Sawmills and wood preservation+Veneer, plywood, and engineered wood product manufacturing</v>
+      </c>
+      <c r="C2" s="69">
+        <f>exio_usa!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="69">
+        <f>exio_usa!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="69">
+        <f>exio_usa!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="69">
+        <f>exio_usa!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="69">
+        <f>exio_usa!H36</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="69">
+        <f>exio_usa!I36</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="69">
+        <f>exio_usa!J36</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="69">
+        <f>exio_usa!K36</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="69">
+        <f>exio_usa!L36</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="69">
+        <f>exio_usa!M36</f>
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="69">
+        <f>exio_usa!N36</f>
+        <v>0.7</v>
+      </c>
+      <c r="N2" s="69">
+        <f>exio_usa!O36</f>
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="69">
+        <f>exio_usa!P36</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="69">
+        <f>exio_usa!Q36</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="69">
+        <f>exio_usa!R36</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="69">
+        <f>exio_usa!S36</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="69">
+        <f>exio_usa!T36</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="69">
+        <f>exio_usa!U36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>exio_usa!B37</f>
+        <v>321910</v>
+      </c>
+      <c r="B3" s="69" t="str">
+        <f>exio_usa!C37</f>
+        <v>Millwork</v>
+      </c>
+      <c r="C3" s="69">
+        <f>exio_usa!D37</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="69">
+        <f>exio_usa!E37</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="69">
+        <f>exio_usa!F37</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="69">
+        <f>exio_usa!G37</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="69">
+        <f>exio_usa!H37</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="69">
+        <f>exio_usa!I37</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="69">
+        <f>exio_usa!J37</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="69">
+        <f>exio_usa!K37</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="69">
+        <f>exio_usa!L37</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="69">
+        <f>exio_usa!M37</f>
+        <v>0.7</v>
+      </c>
+      <c r="M3" s="69">
+        <f>exio_usa!N37</f>
+        <v>0.7</v>
+      </c>
+      <c r="N3" s="69">
+        <f>exio_usa!O37</f>
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="69">
+        <f>exio_usa!P37</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="69">
+        <f>exio_usa!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="69">
+        <f>exio_usa!R37</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="69">
+        <f>exio_usa!S37</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="69">
+        <f>exio_usa!T37</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="69">
+        <f>exio_usa!U37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>exio_usa!B38</f>
+        <v>3219A0</v>
+      </c>
+      <c r="B4" s="69" t="str">
+        <f>exio_usa!C38</f>
+        <v>All other wood product manufacturing</v>
+      </c>
+      <c r="C4" s="69">
+        <f>exio_usa!D38</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="69">
+        <f>exio_usa!E38</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="69">
+        <f>exio_usa!F38</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="69">
+        <f>exio_usa!G38</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="69">
+        <f>exio_usa!H38</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="69">
+        <f>exio_usa!I38</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="69">
+        <f>exio_usa!J38</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="69">
+        <f>exio_usa!K38</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="69">
+        <f>exio_usa!L38</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="69">
+        <f>exio_usa!M38</f>
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="69">
+        <f>exio_usa!N38</f>
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="69">
+        <f>exio_usa!O38</f>
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="69">
+        <f>exio_usa!P38</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="69">
+        <f>exio_usa!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="69">
+        <f>exio_usa!R38</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="69">
+        <f>exio_usa!S38</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="69">
+        <f>exio_usa!T38</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="69">
+        <f>exio_usa!U38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>exio_usa!B39</f>
+        <v>327200</v>
+      </c>
+      <c r="B5" s="69" t="str">
+        <f>exio_usa!C39</f>
+        <v>Glass and glass product manufacturing</v>
+      </c>
+      <c r="C5" s="69">
+        <f>exio_usa!D39</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="69">
+        <f>exio_usa!E39</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="69">
+        <f>exio_usa!F39</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="69">
+        <f>exio_usa!G39</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="69">
+        <f>exio_usa!H39</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="69">
+        <f>exio_usa!I39</f>
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="69">
+        <f>exio_usa!J39</f>
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="69">
+        <f>exio_usa!K39</f>
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="69">
+        <f>exio_usa!L39</f>
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="69">
+        <f>exio_usa!M39</f>
+        <v>0.7</v>
+      </c>
+      <c r="M5" s="69">
+        <f>exio_usa!N39</f>
+        <v>0.7</v>
+      </c>
+      <c r="N5" s="69">
+        <f>exio_usa!O39</f>
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="69">
+        <f>exio_usa!P39</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="69">
+        <f>exio_usa!Q39</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="69">
+        <f>exio_usa!R39</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="69">
+        <f>exio_usa!S39</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="69">
+        <f>exio_usa!T39</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="69">
+        <f>exio_usa!U39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>exio_usa!B40</f>
+        <v>331110+331200</v>
+      </c>
+      <c r="B6" s="69" t="str">
+        <f>exio_usa!C40</f>
+        <v>Iron and steel mills and ferroalloy manufacturing+Steel product manufacturing from purchased steel</v>
+      </c>
+      <c r="C6" s="69">
+        <f>exio_usa!D40</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D6" s="69">
+        <f>exio_usa!E40</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E6" s="69">
+        <f>exio_usa!F40</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F6" s="69">
+        <f>exio_usa!G40</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G6" s="69">
+        <f>exio_usa!H40</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H6" s="69">
+        <f>exio_usa!I40</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I6" s="69">
+        <f>exio_usa!J40</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J6" s="69">
+        <f>exio_usa!K40</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K6" s="69">
+        <f>exio_usa!L40</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L6" s="69">
+        <f>exio_usa!M40</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M6" s="69">
+        <f>exio_usa!N40</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N6" s="69">
+        <f>exio_usa!O40</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O6" s="69">
+        <f>exio_usa!P40</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="69">
+        <f>exio_usa!Q40</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="69">
+        <f>exio_usa!R40</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="69">
+        <f>exio_usa!S40</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="69">
+        <f>exio_usa!T40</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="69">
+        <f>exio_usa!U40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>exio_usa!B41</f>
+        <v>331313+33131B</v>
+      </c>
+      <c r="B7" s="69" t="str">
+        <f>exio_usa!C41</f>
+        <v>Alumina refining and primary aluminum production+Aluminum product manufacturing from purchased aluminum</v>
+      </c>
+      <c r="C7" s="69">
+        <f>exio_usa!D41</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="69">
+        <f>exio_usa!E41</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="69">
+        <f>exio_usa!F41</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="69">
+        <f>exio_usa!G41</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="69">
+        <f>exio_usa!H41</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="69">
+        <f>exio_usa!I41</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="69">
+        <f>exio_usa!J41</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J7" s="69">
+        <f>exio_usa!K41</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="69">
+        <f>exio_usa!L41</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="L7" s="69">
+        <f>exio_usa!M41</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="M7" s="69">
+        <f>exio_usa!N41</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N7" s="69">
+        <f>exio_usa!O41</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O7" s="69">
+        <f>exio_usa!P41</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="69">
+        <f>exio_usa!Q41</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="69">
+        <f>exio_usa!R41</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="69">
+        <f>exio_usa!S41</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="69">
+        <f>exio_usa!T41</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="69">
+        <f>exio_usa!U41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>exio_usa!B42</f>
+        <v>331410</v>
+      </c>
+      <c r="B8" s="69" t="str">
+        <f>exio_usa!C42</f>
+        <v>Nonferrous Metal (except Aluminum) Smelting and Refining</v>
+      </c>
+      <c r="C8" s="69">
+        <f>exio_usa!D42</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="D8" s="69">
+        <f>exio_usa!E42</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E8" s="69">
+        <f>exio_usa!F42</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F8" s="69">
+        <f>exio_usa!G42</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G8" s="69">
+        <f>exio_usa!H42</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H8" s="69">
+        <f>exio_usa!I42</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="I8" s="69">
+        <f>exio_usa!J42</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J8" s="69">
+        <f>exio_usa!K42</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="K8" s="69">
+        <f>exio_usa!L42</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="L8" s="69">
+        <f>exio_usa!M42</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="M8" s="69">
+        <f>exio_usa!N42</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N8" s="69">
+        <f>exio_usa!O42</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O8" s="69">
+        <f>exio_usa!P42</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="69">
+        <f>exio_usa!Q42</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="69">
+        <f>exio_usa!R42</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="69">
+        <f>exio_usa!S42</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="69">
+        <f>exio_usa!T42</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="69">
+        <f>exio_usa!U42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>exio_usa!B43</f>
+        <v>331420</v>
+      </c>
+      <c r="B9" s="69" t="str">
+        <f>exio_usa!C43</f>
+        <v>Copper rolling, drawing, extruding and alloying</v>
+      </c>
+      <c r="C9" s="69">
+        <f>exio_usa!D43</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="69">
+        <f>exio_usa!E43</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="69">
+        <f>exio_usa!F43</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="69">
+        <f>exio_usa!G43</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="69">
+        <f>exio_usa!H43</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="69">
+        <f>exio_usa!I43</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="69">
+        <f>exio_usa!J43</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J9" s="69">
+        <f>exio_usa!K43</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="69">
+        <f>exio_usa!L43</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="69">
+        <f>exio_usa!M43</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="M9" s="69">
+        <f>exio_usa!N43</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N9" s="69">
+        <f>exio_usa!O43</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O9" s="69">
+        <f>exio_usa!P43</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="69">
+        <f>exio_usa!Q43</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="69">
+        <f>exio_usa!R43</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="69">
+        <f>exio_usa!S43</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="69">
+        <f>exio_usa!T43</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="69">
+        <f>exio_usa!U43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>exio_usa!B44</f>
+        <v>331490</v>
+      </c>
+      <c r="B10" s="69" t="str">
+        <f>exio_usa!C44</f>
+        <v>Nonferrous metal (except copper and aluminum) rolling, drawing, extruding and alloying</v>
+      </c>
+      <c r="C10" s="69">
+        <f>exio_usa!D44</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="69">
+        <f>exio_usa!E44</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="69">
+        <f>exio_usa!F44</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="69">
+        <f>exio_usa!G44</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="69">
+        <f>exio_usa!H44</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="69">
+        <f>exio_usa!I44</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I10" s="69">
+        <f>exio_usa!J44</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J10" s="69">
+        <f>exio_usa!K44</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K10" s="69">
+        <f>exio_usa!L44</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L10" s="69">
+        <f>exio_usa!M44</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M10" s="69">
+        <f>exio_usa!N44</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N10" s="69">
+        <f>exio_usa!O44</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O10" s="69">
+        <f>exio_usa!P44</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="69">
+        <f>exio_usa!Q44</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="69">
+        <f>exio_usa!R44</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="69">
+        <f>exio_usa!S44</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="69">
+        <f>exio_usa!T44</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="69">
+        <f>exio_usa!U44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>exio_usa!B45</f>
+        <v>331510</v>
+      </c>
+      <c r="B11" s="69" t="str">
+        <f>exio_usa!C45</f>
+        <v>Ferrous metal foundries</v>
+      </c>
+      <c r="C11" s="69">
+        <f>exio_usa!D45</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D11" s="69">
+        <f>exio_usa!E45</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E11" s="69">
+        <f>exio_usa!F45</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F11" s="69">
+        <f>exio_usa!G45</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G11" s="69">
+        <f>exio_usa!H45</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H11" s="69">
+        <f>exio_usa!I45</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I11" s="69">
+        <f>exio_usa!J45</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J11" s="69">
+        <f>exio_usa!K45</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K11" s="69">
+        <f>exio_usa!L45</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L11" s="69">
+        <f>exio_usa!M45</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M11" s="69">
+        <f>exio_usa!N45</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N11" s="69">
+        <f>exio_usa!O45</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O11" s="69">
+        <f>exio_usa!P45</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="69">
+        <f>exio_usa!Q45</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="69">
+        <f>exio_usa!R45</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="69">
+        <f>exio_usa!S45</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="69">
+        <f>exio_usa!T45</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="69">
+        <f>exio_usa!U45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>exio_usa!B46</f>
+        <v>331520</v>
+      </c>
+      <c r="B12" s="69" t="str">
+        <f>exio_usa!C46</f>
+        <v>Nonferrous metal foundries</v>
+      </c>
+      <c r="C12" s="69">
+        <f>exio_usa!D46</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="69">
+        <f>exio_usa!E46</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="69">
+        <f>exio_usa!F46</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="69">
+        <f>exio_usa!G46</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="69">
+        <f>exio_usa!H46</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="69">
+        <f>exio_usa!I46</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I12" s="69">
+        <f>exio_usa!J46</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J12" s="69">
+        <f>exio_usa!K46</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K12" s="69">
+        <f>exio_usa!L46</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L12" s="69">
+        <f>exio_usa!M46</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M12" s="69">
+        <f>exio_usa!N46</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N12" s="69">
+        <f>exio_usa!O46</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O12" s="69">
+        <f>exio_usa!P46</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="69">
+        <f>exio_usa!Q46</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="69">
+        <f>exio_usa!R46</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="69">
+        <f>exio_usa!S46</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="69">
+        <f>exio_usa!T46</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="69">
+        <f>exio_usa!U46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>exio_usa!B47</f>
+        <v>332114</v>
+      </c>
+      <c r="B13" s="69" t="str">
+        <f>exio_usa!C47</f>
+        <v>Custom roll forming</v>
+      </c>
+      <c r="C13" s="69">
+        <f>exio_usa!D47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D13" s="69">
+        <f>exio_usa!E47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E13" s="69">
+        <f>exio_usa!F47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F13" s="69">
+        <f>exio_usa!G47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G13" s="69">
+        <f>exio_usa!H47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H13" s="69">
+        <f>exio_usa!I47</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I13" s="69">
+        <f>exio_usa!J47</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J13" s="69">
+        <f>exio_usa!K47</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K13" s="69">
+        <f>exio_usa!L47</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L13" s="69">
+        <f>exio_usa!M47</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M13" s="69">
+        <f>exio_usa!N47</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N13" s="69">
+        <f>exio_usa!O47</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O13" s="69">
+        <f>exio_usa!P47</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="69">
+        <f>exio_usa!Q47</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="69">
+        <f>exio_usa!R47</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="69">
+        <f>exio_usa!S47</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="69">
+        <f>exio_usa!T47</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="69">
+        <f>exio_usa!U47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>exio_usa!B48</f>
+        <v>33211A</v>
+      </c>
+      <c r="B14" s="69" t="str">
+        <f>exio_usa!C48</f>
+        <v>All other forging, stamping, and sintering</v>
+      </c>
+      <c r="C14" s="69">
+        <f>exio_usa!D48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D14" s="69">
+        <f>exio_usa!E48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E14" s="69">
+        <f>exio_usa!F48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F14" s="69">
+        <f>exio_usa!G48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G14" s="69">
+        <f>exio_usa!H48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H14" s="69">
+        <f>exio_usa!I48</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I14" s="69">
+        <f>exio_usa!J48</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J14" s="69">
+        <f>exio_usa!K48</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K14" s="69">
+        <f>exio_usa!L48</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L14" s="69">
+        <f>exio_usa!M48</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M14" s="69">
+        <f>exio_usa!N48</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N14" s="69">
+        <f>exio_usa!O48</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O14" s="69">
+        <f>exio_usa!P48</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="69">
+        <f>exio_usa!Q48</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="69">
+        <f>exio_usa!R48</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="69">
+        <f>exio_usa!S48</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="69">
+        <f>exio_usa!T48</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="69">
+        <f>exio_usa!U48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>exio_usa!B49</f>
+        <v>332119</v>
+      </c>
+      <c r="B15" s="69" t="str">
+        <f>exio_usa!C49</f>
+        <v>Metal crown, closure, and other metal stamping (except automotive)</v>
+      </c>
+      <c r="C15" s="69">
+        <f>exio_usa!D49</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D15" s="69">
+        <f>exio_usa!E49</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E15" s="69">
+        <f>exio_usa!F49</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F15" s="69">
+        <f>exio_usa!G49</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G15" s="69">
+        <f>exio_usa!H49</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H15" s="69">
+        <f>exio_usa!I49</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I15" s="69">
+        <f>exio_usa!J49</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J15" s="69">
+        <f>exio_usa!K49</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K15" s="69">
+        <f>exio_usa!L49</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L15" s="69">
+        <f>exio_usa!M49</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M15" s="69">
+        <f>exio_usa!N49</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N15" s="69">
+        <f>exio_usa!O49</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O15" s="69">
+        <f>exio_usa!P49</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="69">
+        <f>exio_usa!Q49</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="69">
+        <f>exio_usa!R49</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="69">
+        <f>exio_usa!S49</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="69">
+        <f>exio_usa!T49</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="69">
+        <f>exio_usa!U49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>exio_usa!B50</f>
+        <v>325211+3252A0</v>
+      </c>
+      <c r="B16" s="69" t="str">
+        <f>exio_usa!C50</f>
+        <v>Plastics material and resin manufacturing+Synthetic rubber and artificial and synthetic fibers and filaments manufacturing</v>
+      </c>
+      <c r="C16" s="69">
+        <f>exio_usa!D50</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="69">
+        <f>exio_usa!E50</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="69">
+        <f>exio_usa!F50</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="69">
+        <f>exio_usa!G50</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="69">
+        <f>exio_usa!H50</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="69">
+        <f>exio_usa!I50</f>
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="69">
+        <f>exio_usa!J50</f>
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="69">
+        <f>exio_usa!K50</f>
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="69">
+        <f>exio_usa!L50</f>
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="69">
+        <f>exio_usa!M50</f>
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="69">
+        <f>exio_usa!N50</f>
+        <v>0.7</v>
+      </c>
+      <c r="N16" s="69">
+        <f>exio_usa!O50</f>
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="69">
+        <f>exio_usa!P50</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="69">
+        <f>exio_usa!Q50</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q16" s="69">
+        <f>exio_usa!R50</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="69">
+        <f>exio_usa!S50</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="69">
+        <f>exio_usa!T50</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="69">
+        <f>exio_usa!U50</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input_data/USA/Filter_2007_ExtAgg.xlsx
+++ b/input_data/USA/Filter_2007_ExtAgg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF978B1-A9C5-4303-9CF3-45DDDE9AF280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE6FA9-313B-4948-8C8A-5BEB0C6308B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -2634,9 +2634,6 @@
     <t>S00900</t>
   </si>
   <si>
-    <t>Other buildungs</t>
-  </si>
-  <si>
     <t>Infrastructure</t>
   </si>
   <si>
@@ -2914,6 +2911,9 @@
   </si>
   <si>
     <t>Plastics</t>
+  </si>
+  <si>
+    <t>Other buildings</t>
   </si>
 </sst>
 </file>
@@ -3281,9 +3281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3311,9 +3308,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3324,6 +3318,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3618,74 +3618,74 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>402</v>
       </c>
       <c r="D12" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -3693,12 +3693,12 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -3710,20 +3710,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB401"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B443" sqref="B443"/>
+      <selection pane="bottomRight" activeCell="M393" sqref="M393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="26"/>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>393</v>
       </c>
@@ -3731,33 +3731,33 @@
         <v>394</v>
       </c>
       <c r="G1" s="20"/>
-      <c r="I1" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-    </row>
-    <row r="2" spans="1:28" ht="133.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="68" t="s">
+        <v>809</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+    </row>
+    <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>814</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>815</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>413</v>
@@ -3772,7 +3772,7 @@
         <v>401</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>400</v>
@@ -3784,13 +3784,13 @@
         <v>408</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>808</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>809</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>410</v>
@@ -3823,7 +3823,7 @@
         <v>398</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>392</v>
@@ -3832,13 +3832,13 @@
         <v>395</v>
       </c>
       <c r="AA2" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB2" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="AB2" s="28" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>414</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>416</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>417</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>418</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>419</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>422</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>425</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>426</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>428</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>429</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>430</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>431</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>432</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>433</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>434</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>435</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>436</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>437</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>438</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>439</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>440</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>441</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>442</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>443</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>444</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>445</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>446</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>447</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>448</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>449</v>
       </c>
@@ -7006,13 +7006,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>826</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>827</v>
-      </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>450</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>451</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>452</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>453</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>454</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>455</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>456</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -7710,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>457</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>458</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>459</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>460</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>461</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>462</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>463</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -8326,12 +8326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="B54" s="29" t="s">
         <v>828</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>829</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -8414,13 +8414,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>830</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>831</v>
-      </c>
       <c r="C55" s="2">
         <v>0</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>464</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>465</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>466</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>467</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -8854,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>468</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>469</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>470</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>471</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>472</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>473</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>474</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>475</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>476</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>477</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>478</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>479</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>480</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>482</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>483</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>484</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>485</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>486</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>487</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>488</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>489</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>490</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>491</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>492</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>493</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>494</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>495</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>497</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>498</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>499</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>500</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>501</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>502</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>503</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>504</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>505</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>506</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>507</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>508</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>509</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>510</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>511</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>512</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>513</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>514</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>515</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>516</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>517</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>518</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>519</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>520</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>521</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>522</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>523</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>524</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>525</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>526</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>527</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>528</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -14222,7 +14222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>529</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>530</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>531</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>532</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>533</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>534</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>535</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>536</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>537</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>538</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>539</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>540</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>541</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>542</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>543</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>544</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>545</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>546</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>547</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>548</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>549</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>550</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>551</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>552</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>553</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>554</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>555</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>556</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>557</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>558</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>559</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>560</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>561</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>562</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>563</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>564</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>565</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
@@ -17478,7 +17478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>566</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>567</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>568</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>569</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>570</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>571</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>572</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>573</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>574</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>575</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>576</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>577</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>578</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>579</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>580</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>581</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>582</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>583</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>584</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>585</v>
       </c>
@@ -19238,7 +19238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>586</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>587</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>588</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>589</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>590</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>591</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>592</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>593</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>594</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>595</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>596</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>597</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>598</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>599</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>600</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>601</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>602</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>603</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>604</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>605</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>606</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>607</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>608</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>609</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>610</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>611</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>612</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>613</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>614</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>615</v>
       </c>
@@ -21878,7 +21878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>616</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>617</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>618</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>619</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>620</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>621</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>622</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>623</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>624</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>625</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>626</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>627</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>628</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>629</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>630</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>631</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>632</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>633</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>634</v>
       </c>
@@ -23550,7 +23550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>635</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
@@ -23638,12 +23638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="B228" s="29" t="s">
         <v>832</v>
-      </c>
-      <c r="B228" s="29" t="s">
-        <v>833</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -23726,7 +23726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>636</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>637</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>638</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>639</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>640</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>641</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>642</v>
       </c>
@@ -24274,7 +24274,7 @@
         <v>1</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H235" s="3">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>643</v>
       </c>
@@ -24430,13 +24430,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A237" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="B237" s="29" t="s">
         <v>834</v>
       </c>
-      <c r="B237" s="29" t="s">
-        <v>835</v>
-      </c>
       <c r="C237" s="2">
         <v>0</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
@@ -24518,7 +24518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>644</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>645</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>646</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>647</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>1</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H241" s="3">
         <v>0</v>
@@ -24870,7 +24870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>648</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>649</v>
       </c>
@@ -25046,13 +25046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A244" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="B244" s="29" t="s">
         <v>836</v>
       </c>
-      <c r="B244" s="29" t="s">
-        <v>837</v>
-      </c>
       <c r="C244" s="2">
         <v>0</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>650</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>651</v>
       </c>
@@ -25310,7 +25310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>652</v>
       </c>
@@ -25330,7 +25330,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H247" s="3">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>653</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
@@ -25486,7 +25486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>654</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>655</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>656</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>657</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>658</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>659</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>660</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
@@ -26102,7 +26102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>661</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>662</v>
       </c>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>663</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>1</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
@@ -26366,7 +26366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>664</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>1</v>
       </c>
       <c r="G259" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H259" s="3">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>665</v>
       </c>
@@ -26542,7 +26542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>666</v>
       </c>
@@ -26630,7 +26630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>667</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
       <c r="G262" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H262" s="3">
         <v>1</v>
@@ -26718,7 +26718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>668</v>
       </c>
@@ -26806,7 +26806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>669</v>
       </c>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>670</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>671</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>672</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>673</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>674</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>675</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>676</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>677</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>678</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>679</v>
       </c>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>680</v>
       </c>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>681</v>
       </c>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>682</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>683</v>
       </c>
@@ -28124,7 +28124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>684</v>
       </c>
@@ -28212,7 +28212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>685</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>686</v>
       </c>
@@ -28388,7 +28388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>687</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>688</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>689</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>690</v>
       </c>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>691</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>692</v>
       </c>
@@ -28916,7 +28916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>693</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>694</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>695</v>
       </c>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>696</v>
       </c>
@@ -29268,7 +29268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>697</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>698</v>
       </c>
@@ -29444,7 +29444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>699</v>
       </c>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>700</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>701</v>
       </c>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>702</v>
       </c>
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>703</v>
       </c>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>704</v>
       </c>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>705</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>706</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>707</v>
       </c>
@@ -30236,7 +30236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>708</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>709</v>
       </c>
@@ -30412,7 +30412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>710</v>
       </c>
@@ -30500,7 +30500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>711</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>712</v>
       </c>
@@ -30676,7 +30676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>713</v>
       </c>
@@ -30764,7 +30764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>714</v>
       </c>
@@ -30852,7 +30852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>715</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>716</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>717</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>718</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>719</v>
       </c>
@@ -31292,7 +31292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>720</v>
       </c>
@@ -31380,7 +31380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>721</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>722</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>0</v>
       </c>
       <c r="G317" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H317" s="3">
         <v>0</v>
@@ -31556,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>723</v>
       </c>
@@ -31644,7 +31644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>724</v>
       </c>
@@ -31732,7 +31732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>725</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>726</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>727</v>
       </c>
@@ -31996,7 +31996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>728</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>729</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>730</v>
       </c>
@@ -32192,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="G325" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H325" s="3">
         <v>0</v>
@@ -32260,7 +32260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>731</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>732</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>733</v>
       </c>
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>734</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>0</v>
       </c>
       <c r="G329" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H329" s="3">
         <v>0</v>
@@ -32612,7 +32612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>735</v>
       </c>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>736</v>
       </c>
@@ -32788,7 +32788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>737</v>
       </c>
@@ -32808,7 +32808,7 @@
         <v>0</v>
       </c>
       <c r="G332" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H332" s="3">
         <v>0</v>
@@ -32876,7 +32876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>738</v>
       </c>
@@ -32896,7 +32896,7 @@
         <v>0</v>
       </c>
       <c r="G333" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H333" s="3">
         <v>0</v>
@@ -32964,7 +32964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>739</v>
       </c>
@@ -33052,7 +33052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>740</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>741</v>
       </c>
@@ -33228,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>742</v>
       </c>
@@ -33316,7 +33316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>743</v>
       </c>
@@ -33404,7 +33404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>744</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H339" s="3">
         <v>0</v>
@@ -33492,7 +33492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>745</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>0</v>
       </c>
       <c r="G340" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H340" s="3">
         <v>0</v>
@@ -33580,7 +33580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>746</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>747</v>
       </c>
@@ -33756,7 +33756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>748</v>
       </c>
@@ -33776,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="G343" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H343" s="3">
         <v>0</v>
@@ -33844,7 +33844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>749</v>
       </c>
@@ -33864,7 +33864,7 @@
         <v>0</v>
       </c>
       <c r="G344" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H344" s="3">
         <v>0</v>
@@ -33932,7 +33932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>750</v>
       </c>
@@ -34020,7 +34020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>751</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>752</v>
       </c>
@@ -34196,7 +34196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>753</v>
       </c>
@@ -34284,7 +34284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>754</v>
       </c>
@@ -34372,7 +34372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>755</v>
       </c>
@@ -34460,7 +34460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>756</v>
       </c>
@@ -34548,7 +34548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>757</v>
       </c>
@@ -34636,7 +34636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>758</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>759</v>
       </c>
@@ -34812,7 +34812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>760</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>761</v>
       </c>
@@ -34988,7 +34988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>762</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>763</v>
       </c>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>764</v>
       </c>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>765</v>
       </c>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>766</v>
       </c>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>767</v>
       </c>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>768</v>
       </c>
@@ -35604,7 +35604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>769</v>
       </c>
@@ -35692,7 +35692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>770</v>
       </c>
@@ -35780,7 +35780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>771</v>
       </c>
@@ -35868,7 +35868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>772</v>
       </c>
@@ -35956,7 +35956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>773</v>
       </c>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>774</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>775</v>
       </c>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>776</v>
       </c>
@@ -36308,7 +36308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>777</v>
       </c>
@@ -36396,7 +36396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>778</v>
       </c>
@@ -36484,7 +36484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>779</v>
       </c>
@@ -36572,7 +36572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>780</v>
       </c>
@@ -36660,7 +36660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>781</v>
       </c>
@@ -36748,7 +36748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>782</v>
       </c>
@@ -36836,7 +36836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>783</v>
       </c>
@@ -36924,7 +36924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>784</v>
       </c>
@@ -37012,7 +37012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>785</v>
       </c>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="G380" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H380" s="3">
         <v>0</v>
@@ -37100,7 +37100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>786</v>
       </c>
@@ -37188,7 +37188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>787</v>
       </c>
@@ -37276,7 +37276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>788</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>789</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>790</v>
       </c>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>791</v>
       </c>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>792</v>
       </c>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>793</v>
       </c>
@@ -37804,7 +37804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>794</v>
       </c>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>795</v>
       </c>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>796</v>
       </c>
@@ -38068,7 +38068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>797</v>
       </c>
@@ -38156,7 +38156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>798</v>
       </c>
@@ -38242,7 +38242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>799</v>
       </c>
@@ -38328,7 +38328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>800</v>
       </c>
@@ -38414,7 +38414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>801</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>802</v>
       </c>
@@ -38588,7 +38588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>803</v>
       </c>
@@ -38608,7 +38608,7 @@
         <v>0</v>
       </c>
       <c r="G398" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H398" s="3">
         <v>0</v>
@@ -38676,7 +38676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>804</v>
       </c>
@@ -38696,7 +38696,7 @@
         <v>0</v>
       </c>
       <c r="G399" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H399" s="3">
         <v>0</v>
@@ -38764,7 +38764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>805</v>
       </c>
@@ -38852,7 +38852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>806</v>
       </c>
@@ -39439,1260 +39439,1260 @@
   <dimension ref="A2:U50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="20" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="20" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" s="33" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>843</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>844</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>845</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="K6" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="L6" s="33" t="s">
         <v>850</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="M6" s="33" t="s">
         <v>851</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="N6" s="33" t="s">
         <v>852</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="O6" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="P6" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="Q6" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="Q6" s="35" t="s">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D7" s="33" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>860</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="K7" s="33" t="s">
         <v>863</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="N7" s="33" t="s">
         <v>866</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="O7" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="P7" s="33" t="s">
         <v>868</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="Q7" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="Q7" s="35" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <v>0</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37">
+        <v>0</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0</v>
+      </c>
+      <c r="P8" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>845</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>859</v>
-      </c>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
+      <c r="C9" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="D9" s="41">
         <v>0.85</v>
       </c>
-      <c r="G8" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
-      <c r="K8" s="38">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
-        <v>0</v>
-      </c>
-      <c r="N8" s="38">
-        <v>0</v>
-      </c>
-      <c r="O8" s="38">
-        <v>0</v>
-      </c>
-      <c r="P8" s="39">
+      <c r="E9" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="P9" s="43">
         <v>0.7</v>
       </c>
-      <c r="Q8" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>871</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="Q9" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D9" s="42">
-        <v>0.85</v>
-      </c>
-      <c r="E9" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="F9" s="43">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
-        <v>0</v>
-      </c>
-      <c r="H9" s="43">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44">
+      <c r="C10" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
         <v>0.8</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J10" s="42">
         <v>0.8</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K10" s="43">
         <v>0.8</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L10" s="42">
         <v>0.8</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M10" s="42">
         <v>0.8</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N10" s="43">
         <v>0.8</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O10" s="43">
         <v>0.8</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P10" s="43">
         <v>0.7</v>
       </c>
-      <c r="Q9" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
-        <v>873</v>
-      </c>
-      <c r="C10" s="41" t="s">
+      <c r="Q10" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="D10" s="46">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>0</v>
-      </c>
-      <c r="F10" s="43">
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
-        <v>0</v>
-      </c>
-      <c r="H10" s="43">
-        <v>0</v>
-      </c>
-      <c r="I10" s="44">
+      <c r="C11" s="46" t="s">
+        <v>875</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
         <v>0.8</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J11" s="42">
         <v>0.8</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K11" s="43">
         <v>0.8</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L11" s="42">
         <v>0.8</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M11" s="42">
         <v>0.8</v>
       </c>
-      <c r="N10" s="44">
+      <c r="N11" s="43">
         <v>0.8</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O11" s="43">
         <v>0.8</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P11" s="43">
         <v>0.7</v>
       </c>
-      <c r="Q10" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
-        <v>875</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="Q11" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="D11" s="46">
-        <v>0</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0</v>
-      </c>
-      <c r="G11" s="43">
-        <v>0</v>
-      </c>
-      <c r="H11" s="43">
-        <v>0</v>
-      </c>
-      <c r="I11" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="J11" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="K11" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="L11" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="M11" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="N11" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="P11" s="44">
+      <c r="C12" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <v>0</v>
+      </c>
+      <c r="N12" s="42">
+        <v>0</v>
+      </c>
+      <c r="O12" s="42">
+        <v>0</v>
+      </c>
+      <c r="P12" s="42">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="D12" s="46">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="43">
-        <v>0</v>
-      </c>
-      <c r="I12" s="43">
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <v>0</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
-        <v>0</v>
-      </c>
-      <c r="M12" s="43">
-        <v>0</v>
-      </c>
-      <c r="N12" s="43">
-        <v>0</v>
-      </c>
-      <c r="O12" s="43">
-        <v>0</v>
-      </c>
-      <c r="P12" s="43">
-        <v>0.7</v>
-      </c>
-      <c r="Q12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>879</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>880</v>
-      </c>
-      <c r="D13" s="46">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-      <c r="H13" s="43">
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
         <v>0.92631909366008403</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <v>0.86927271702207298</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="42">
         <v>0.89004126278255302</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <v>0.87138156437019998</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="42">
         <v>0.88642733207046298</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="42">
         <v>0.88129071613306198</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="43">
         <v>0.81809329894973004</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="43">
         <v>0.89771421948548102</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="43">
         <v>0.95978881465296295</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="48">
         <v>0.94166040230902204</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>881</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>882</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0</v>
-      </c>
-      <c r="H14" s="43">
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
         <v>0.8</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="42">
         <v>0.8</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="42">
         <v>0.8</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="42">
         <v>0.8</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="42">
         <v>0.8</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>0.8</v>
       </c>
-      <c r="N14" s="43">
-        <v>0</v>
-      </c>
-      <c r="O14" s="43">
-        <v>0</v>
-      </c>
-      <c r="P14" s="43">
+      <c r="N14" s="42">
+        <v>0</v>
+      </c>
+      <c r="O14" s="42">
+        <v>0</v>
+      </c>
+      <c r="P14" s="42">
         <v>0.7</v>
       </c>
-      <c r="Q14" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>883</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>884</v>
-      </c>
-      <c r="D15" s="46">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-      <c r="H15" s="43">
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
         <v>0.98800605724956503</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <v>0.99877498740551296</v>
       </c>
-      <c r="J15" s="43">
-        <v>1</v>
-      </c>
-      <c r="K15" s="44">
-        <v>1</v>
-      </c>
-      <c r="L15" s="43">
-        <v>1</v>
-      </c>
-      <c r="M15" s="43">
-        <v>1</v>
-      </c>
-      <c r="N15" s="44">
-        <v>1</v>
-      </c>
-      <c r="O15" s="44">
+      <c r="J15" s="42">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>1</v>
+      </c>
+      <c r="L15" s="42">
+        <v>1</v>
+      </c>
+      <c r="M15" s="42">
+        <v>1</v>
+      </c>
+      <c r="N15" s="43">
+        <v>1</v>
+      </c>
+      <c r="O15" s="43">
         <v>0.999156412809172</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="43">
         <v>0.98009206796423698</v>
       </c>
-      <c r="Q15" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>885</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>886</v>
-      </c>
-      <c r="D16" s="46">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="43">
-        <v>0</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42">
         <v>0.93196078849751895</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <v>0.90542002153861501</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <v>0.92506224740253995</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="43">
         <v>0.91188541832382797</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="42">
         <v>0.95784981126300694</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <v>0.92480067633781304</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="43">
         <v>0.81225200582322299</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="43">
         <v>0.90874200468859301</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="43">
         <v>0.98460249995958704</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="48">
         <v>0.95200977870694903</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>887</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>888</v>
-      </c>
-      <c r="D17" s="46">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
         <v>0.99766367004677803</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <v>0.99959212142745102</v>
       </c>
-      <c r="J17" s="43">
-        <v>1</v>
-      </c>
-      <c r="K17" s="44">
-        <v>1</v>
-      </c>
-      <c r="L17" s="43">
+      <c r="J17" s="42">
+        <v>1</v>
+      </c>
+      <c r="K17" s="43">
+        <v>1</v>
+      </c>
+      <c r="L17" s="42">
         <v>0.99998577931585997</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="42">
         <v>0.99987357745073902</v>
       </c>
-      <c r="N17" s="44">
-        <v>1</v>
-      </c>
-      <c r="O17" s="44">
-        <v>1</v>
-      </c>
-      <c r="P17" s="44">
+      <c r="N17" s="43">
+        <v>1</v>
+      </c>
+      <c r="O17" s="43">
+        <v>1</v>
+      </c>
+      <c r="P17" s="43">
         <v>0.99517688048449904</v>
       </c>
-      <c r="Q17" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>889</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>890</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0</v>
-      </c>
-      <c r="E18" s="43">
-        <v>0</v>
-      </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
-        <v>0</v>
-      </c>
-      <c r="H18" s="43">
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="42">
         <v>0.99990715571585498</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <v>0.99996338425751496</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>0.999829857254386</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="43">
         <v>0.99949496003205796</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="42">
         <v>0.99991695252840795</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="42">
         <v>0.99969184027675295</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="43">
         <v>0.99974574415004602</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="43">
         <v>0.99996712399807097</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="43">
         <v>0.99992430312491298</v>
       </c>
-      <c r="Q18" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>891</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>892</v>
-      </c>
-      <c r="D19" s="46">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43">
-        <v>0</v>
-      </c>
-      <c r="F19" s="43">
-        <v>0</v>
-      </c>
-      <c r="G19" s="43">
-        <v>0</v>
-      </c>
-      <c r="H19" s="43">
+      <c r="D19" s="45">
+        <v>0</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
         <v>0.8</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="42">
         <v>0.8</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <v>0.8</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="42">
         <v>0.8</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="42">
         <v>0.8</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="42">
         <v>0.8</v>
       </c>
-      <c r="N19" s="43">
-        <v>0</v>
-      </c>
-      <c r="O19" s="43">
-        <v>0</v>
-      </c>
-      <c r="P19" s="43">
+      <c r="N19" s="42">
+        <v>0</v>
+      </c>
+      <c r="O19" s="42">
+        <v>0</v>
+      </c>
+      <c r="P19" s="42">
         <v>0.7</v>
       </c>
-      <c r="Q19" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>861</v>
-      </c>
-      <c r="D20" s="46">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43">
-        <v>0</v>
-      </c>
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
-        <v>0</v>
-      </c>
-      <c r="H20" s="43">
+      <c r="B20" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>860</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0</v>
+      </c>
+      <c r="G20" s="42">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42">
         <v>0.93906914981729195</v>
       </c>
-      <c r="I20" s="43">
-        <v>1</v>
-      </c>
-      <c r="J20" s="43">
-        <v>1</v>
-      </c>
-      <c r="K20" s="43">
-        <v>1</v>
-      </c>
-      <c r="L20" s="43">
-        <v>1</v>
-      </c>
-      <c r="M20" s="43">
-        <v>1</v>
-      </c>
-      <c r="N20" s="43">
-        <v>1</v>
-      </c>
-      <c r="O20" s="43">
-        <v>1</v>
-      </c>
-      <c r="P20" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="42">
+        <v>1</v>
+      </c>
+      <c r="J20" s="42">
+        <v>1</v>
+      </c>
+      <c r="K20" s="42">
+        <v>1</v>
+      </c>
+      <c r="L20" s="42">
+        <v>1</v>
+      </c>
+      <c r="M20" s="42">
+        <v>1</v>
+      </c>
+      <c r="N20" s="42">
+        <v>1</v>
+      </c>
+      <c r="O20" s="42">
+        <v>1</v>
+      </c>
+      <c r="P20" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="45"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>848</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>862</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="52">
-        <v>0</v>
-      </c>
-      <c r="F22" s="52">
-        <v>0</v>
-      </c>
-      <c r="G22" s="52">
-        <v>0</v>
-      </c>
-      <c r="H22" s="52">
+      <c r="B22" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51">
+        <v>0</v>
+      </c>
+      <c r="F22" s="51">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51">
+        <v>0</v>
+      </c>
+      <c r="H22" s="51">
         <v>0.99919911626622504</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="51">
         <v>0.87677531783260598</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="51">
         <v>0.99934833441944304</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="51">
         <v>0.99081651699607998</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="51">
         <v>0.99984188056712198</v>
       </c>
-      <c r="M22" s="52">
+      <c r="M22" s="51">
         <v>0.95856711264566297</v>
       </c>
-      <c r="N22" s="52">
+      <c r="N22" s="51">
         <v>0.97927689954939101</v>
       </c>
-      <c r="O22" s="52">
+      <c r="O22" s="51">
         <v>0.98477251797624299</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="42">
         <v>0.99956726608327695</v>
       </c>
-      <c r="Q22" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>849</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>863</v>
-      </c>
-      <c r="D23" s="51">
-        <v>0</v>
-      </c>
-      <c r="E23" s="52">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52">
-        <v>0</v>
-      </c>
-      <c r="H23" s="52">
-        <v>1</v>
-      </c>
-      <c r="I23" s="52">
+      <c r="B23" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51">
+        <v>0</v>
+      </c>
+      <c r="F23" s="51">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51">
+        <v>0</v>
+      </c>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
+      <c r="I23" s="51">
         <v>0.99483779676117601</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="51">
         <v>0.93729264738237394</v>
       </c>
-      <c r="K23" s="52">
-        <v>1</v>
-      </c>
-      <c r="L23" s="52">
+      <c r="K23" s="51">
+        <v>1</v>
+      </c>
+      <c r="L23" s="51">
         <v>0.99980424661399503</v>
       </c>
-      <c r="M23" s="52">
-        <v>1</v>
-      </c>
-      <c r="N23" s="52">
-        <v>1</v>
-      </c>
-      <c r="O23" s="52">
-        <v>1</v>
-      </c>
-      <c r="P23" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="53">
+      <c r="M23" s="51">
+        <v>1</v>
+      </c>
+      <c r="N23" s="51">
+        <v>1</v>
+      </c>
+      <c r="O23" s="51">
+        <v>1</v>
+      </c>
+      <c r="P23" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="52">
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>864</v>
-      </c>
-      <c r="D24" s="51">
-        <v>0</v>
-      </c>
-      <c r="E24" s="52">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
-        <v>0</v>
-      </c>
-      <c r="H24" s="52">
-        <v>1</v>
-      </c>
-      <c r="I24" s="52">
-        <v>1</v>
-      </c>
-      <c r="J24" s="52">
-        <v>1</v>
-      </c>
-      <c r="K24" s="52">
-        <v>1</v>
-      </c>
-      <c r="L24" s="52">
-        <v>1</v>
-      </c>
-      <c r="M24" s="52">
-        <v>1</v>
-      </c>
-      <c r="N24" s="52">
-        <v>1</v>
-      </c>
-      <c r="O24" s="52">
-        <v>1</v>
-      </c>
-      <c r="P24" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="E24" s="51">
+        <v>0</v>
+      </c>
+      <c r="F24" s="51">
+        <v>0</v>
+      </c>
+      <c r="G24" s="51">
+        <v>0</v>
+      </c>
+      <c r="H24" s="51">
+        <v>1</v>
+      </c>
+      <c r="I24" s="51">
+        <v>1</v>
+      </c>
+      <c r="J24" s="51">
+        <v>1</v>
+      </c>
+      <c r="K24" s="51">
+        <v>1</v>
+      </c>
+      <c r="L24" s="51">
+        <v>1</v>
+      </c>
+      <c r="M24" s="51">
+        <v>1</v>
+      </c>
+      <c r="N24" s="51">
+        <v>1</v>
+      </c>
+      <c r="O24" s="51">
+        <v>1</v>
+      </c>
+      <c r="P24" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>851</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>865</v>
-      </c>
-      <c r="D25" s="51">
-        <v>0</v>
-      </c>
-      <c r="E25" s="52">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52">
-        <v>0</v>
-      </c>
-      <c r="H25" s="52">
-        <v>1</v>
-      </c>
-      <c r="I25" s="52">
-        <v>1</v>
-      </c>
-      <c r="J25" s="52">
-        <v>1</v>
-      </c>
-      <c r="K25" s="52">
-        <v>1</v>
-      </c>
-      <c r="L25" s="52">
-        <v>1</v>
-      </c>
-      <c r="M25" s="52">
-        <v>1</v>
-      </c>
-      <c r="N25" s="52">
-        <v>1</v>
-      </c>
-      <c r="O25" s="52">
-        <v>1</v>
-      </c>
-      <c r="P25" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="53">
+      <c r="B25" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="D25" s="50">
+        <v>0</v>
+      </c>
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0</v>
+      </c>
+      <c r="G25" s="51">
+        <v>0</v>
+      </c>
+      <c r="H25" s="51">
+        <v>1</v>
+      </c>
+      <c r="I25" s="51">
+        <v>1</v>
+      </c>
+      <c r="J25" s="51">
+        <v>1</v>
+      </c>
+      <c r="K25" s="51">
+        <v>1</v>
+      </c>
+      <c r="L25" s="51">
+        <v>1</v>
+      </c>
+      <c r="M25" s="51">
+        <v>1</v>
+      </c>
+      <c r="N25" s="51">
+        <v>1</v>
+      </c>
+      <c r="O25" s="51">
+        <v>1</v>
+      </c>
+      <c r="P25" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="52">
         <v>0.94234466577596099</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>852</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>866</v>
-      </c>
-      <c r="D26" s="51">
-        <v>0</v>
-      </c>
-      <c r="E26" s="52">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52">
-        <v>0</v>
-      </c>
-      <c r="G26" s="52">
-        <v>0</v>
-      </c>
-      <c r="H26" s="52">
-        <v>1</v>
-      </c>
-      <c r="I26" s="52">
-        <v>1</v>
-      </c>
-      <c r="J26" s="52">
-        <v>1</v>
-      </c>
-      <c r="K26" s="52">
-        <v>1</v>
-      </c>
-      <c r="L26" s="52">
-        <v>1</v>
-      </c>
-      <c r="M26" s="52">
-        <v>1</v>
-      </c>
-      <c r="N26" s="52">
-        <v>1</v>
-      </c>
-      <c r="O26" s="52">
-        <v>1</v>
-      </c>
-      <c r="P26" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="D26" s="50">
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <v>1</v>
+      </c>
+      <c r="I26" s="51">
+        <v>1</v>
+      </c>
+      <c r="J26" s="51">
+        <v>1</v>
+      </c>
+      <c r="K26" s="51">
+        <v>1</v>
+      </c>
+      <c r="L26" s="51">
+        <v>1</v>
+      </c>
+      <c r="M26" s="51">
+        <v>1</v>
+      </c>
+      <c r="N26" s="51">
+        <v>1</v>
+      </c>
+      <c r="O26" s="51">
+        <v>1</v>
+      </c>
+      <c r="P26" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>867</v>
-      </c>
-      <c r="D27" s="51">
-        <v>0</v>
-      </c>
-      <c r="E27" s="52">
-        <v>0</v>
-      </c>
-      <c r="F27" s="52">
-        <v>0</v>
-      </c>
-      <c r="G27" s="52">
-        <v>0</v>
-      </c>
-      <c r="H27" s="52">
-        <v>1</v>
-      </c>
-      <c r="I27" s="52">
-        <v>1</v>
-      </c>
-      <c r="J27" s="52">
-        <v>1</v>
-      </c>
-      <c r="K27" s="52">
-        <v>1</v>
-      </c>
-      <c r="L27" s="52">
-        <v>1</v>
-      </c>
-      <c r="M27" s="52">
-        <v>1</v>
-      </c>
-      <c r="N27" s="52">
-        <v>1</v>
-      </c>
-      <c r="O27" s="52">
-        <v>1</v>
-      </c>
-      <c r="P27" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="D27" s="50">
+        <v>0</v>
+      </c>
+      <c r="E27" s="51">
+        <v>0</v>
+      </c>
+      <c r="F27" s="51">
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
+        <v>0</v>
+      </c>
+      <c r="H27" s="51">
+        <v>1</v>
+      </c>
+      <c r="I27" s="51">
+        <v>1</v>
+      </c>
+      <c r="J27" s="51">
+        <v>1</v>
+      </c>
+      <c r="K27" s="51">
+        <v>1</v>
+      </c>
+      <c r="L27" s="51">
+        <v>1</v>
+      </c>
+      <c r="M27" s="51">
+        <v>1</v>
+      </c>
+      <c r="N27" s="51">
+        <v>1</v>
+      </c>
+      <c r="O27" s="51">
+        <v>1</v>
+      </c>
+      <c r="P27" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>854</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="D28" s="51">
-        <v>0</v>
-      </c>
-      <c r="E28" s="52">
-        <v>0</v>
-      </c>
-      <c r="F28" s="52">
-        <v>0</v>
-      </c>
-      <c r="G28" s="52">
-        <v>0</v>
-      </c>
-      <c r="H28" s="52">
-        <v>1</v>
-      </c>
-      <c r="I28" s="52">
-        <v>1</v>
-      </c>
-      <c r="J28" s="52">
-        <v>1</v>
-      </c>
-      <c r="K28" s="52">
-        <v>1</v>
-      </c>
-      <c r="L28" s="52">
-        <v>1</v>
-      </c>
-      <c r="M28" s="52">
-        <v>1</v>
-      </c>
-      <c r="N28" s="52">
-        <v>1</v>
-      </c>
-      <c r="O28" s="52">
-        <v>1</v>
-      </c>
-      <c r="P28" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="D28" s="50">
+        <v>0</v>
+      </c>
+      <c r="E28" s="51">
+        <v>0</v>
+      </c>
+      <c r="F28" s="51">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
+        <v>0</v>
+      </c>
+      <c r="H28" s="51">
+        <v>1</v>
+      </c>
+      <c r="I28" s="51">
+        <v>1</v>
+      </c>
+      <c r="J28" s="51">
+        <v>1</v>
+      </c>
+      <c r="K28" s="51">
+        <v>1</v>
+      </c>
+      <c r="L28" s="51">
+        <v>1</v>
+      </c>
+      <c r="M28" s="51">
+        <v>1</v>
+      </c>
+      <c r="N28" s="51">
+        <v>1</v>
+      </c>
+      <c r="O28" s="51">
+        <v>1</v>
+      </c>
+      <c r="P28" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>855</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="D29" s="54">
-        <v>0</v>
-      </c>
-      <c r="E29" s="55">
-        <v>0</v>
-      </c>
-      <c r="F29" s="55">
-        <v>0</v>
-      </c>
-      <c r="G29" s="55">
-        <v>0</v>
-      </c>
-      <c r="H29" s="55">
-        <v>1</v>
-      </c>
-      <c r="I29" s="55">
-        <v>1</v>
-      </c>
-      <c r="J29" s="55">
-        <v>1</v>
-      </c>
-      <c r="K29" s="55">
-        <v>1</v>
-      </c>
-      <c r="L29" s="55">
-        <v>1</v>
-      </c>
-      <c r="M29" s="55">
-        <v>1</v>
-      </c>
-      <c r="N29" s="55">
-        <v>1</v>
-      </c>
-      <c r="O29" s="55">
-        <v>1</v>
-      </c>
-      <c r="P29" s="56">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="D29" s="53">
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
+        <v>0</v>
+      </c>
+      <c r="F29" s="54">
+        <v>0</v>
+      </c>
+      <c r="G29" s="54">
+        <v>0</v>
+      </c>
+      <c r="H29" s="54">
+        <v>1</v>
+      </c>
+      <c r="I29" s="54">
+        <v>1</v>
+      </c>
+      <c r="J29" s="54">
+        <v>1</v>
+      </c>
+      <c r="K29" s="54">
+        <v>1</v>
+      </c>
+      <c r="L29" s="54">
+        <v>1</v>
+      </c>
+      <c r="M29" s="54">
+        <v>1</v>
+      </c>
+      <c r="N29" s="54">
+        <v>1</v>
+      </c>
+      <c r="O29" s="54">
+        <v>1</v>
+      </c>
+      <c r="P29" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="P30" s="58"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P30" s="57"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="69" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="59" t="s">
-        <v>894</v>
-      </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
       <c r="I34" t="s">
         <v>410</v>
       </c>
@@ -40705,18 +40705,18 @@
       <c r="L34" t="s">
         <v>391</v>
       </c>
-      <c r="M34" s="59" t="s">
-        <v>895</v>
-      </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
+      <c r="M34" s="69" t="s">
+        <v>894</v>
+      </c>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
       <c r="Q34" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D35" t="s">
         <v>407</v>
@@ -40725,13 +40725,13 @@
         <v>408</v>
       </c>
       <c r="F35" t="s">
+        <v>900</v>
+      </c>
+      <c r="G35" t="s">
         <v>807</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>808</v>
-      </c>
-      <c r="H35" t="s">
-        <v>809</v>
       </c>
       <c r="I35" t="s">
         <v>410</v>
@@ -40764,7 +40764,7 @@
         <v>398</v>
       </c>
       <c r="S35" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T35" t="s">
         <v>392</v>
@@ -40773,47 +40773,47 @@
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>897</v>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>896</v>
       </c>
       <c r="B36" t="s">
+        <v>825</v>
+      </c>
+      <c r="C36" t="s">
         <v>826</v>
       </c>
-      <c r="C36" t="s">
-        <v>827</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61">
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59">
         <f t="shared" ref="M36:O37" si="0">$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="N36" s="61">
+      <c r="N36" s="59">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="O36" s="61">
+      <c r="O36" s="59">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="62"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>897</v>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="60"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>896</v>
       </c>
       <c r="B37" t="s">
         <v>450</v>
@@ -40821,37 +40821,37 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64">
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="N37" s="64">
+      <c r="N37" s="62">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="O37" s="64">
+      <c r="O37" s="62">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="65"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>897</v>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="63"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>896</v>
       </c>
       <c r="B38" t="s">
         <v>451</v>
@@ -40859,37 +40859,37 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64">
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="N38" s="64">
+      <c r="N38" s="62">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="O38" s="64">
+      <c r="O38" s="62">
         <f>$P$8</f>
         <v>0.7</v>
       </c>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="65"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>898</v>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="63"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>897</v>
       </c>
       <c r="B39" t="s">
         <v>453</v>
@@ -40897,179 +40897,179 @@
       <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64">
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62">
         <f>$K$11</f>
         <v>0.8</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="62">
         <f>$I$11</f>
         <v>0.8</v>
       </c>
-      <c r="K39" s="64">
+      <c r="K39" s="62">
         <f>$N$11</f>
         <v>0.8</v>
       </c>
-      <c r="L39" s="64">
+      <c r="L39" s="62">
         <f>$O$11</f>
         <v>0.8</v>
       </c>
-      <c r="M39" s="64">
+      <c r="M39" s="62">
         <f>$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="N39" s="64">
+      <c r="N39" s="62">
         <f>$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="O39" s="64">
+      <c r="O39" s="62">
         <f>$P$11</f>
         <v>0.7</v>
       </c>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="65"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>899</v>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="63"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B40" t="s">
+        <v>827</v>
+      </c>
+      <c r="C40" t="s">
         <v>828</v>
       </c>
-      <c r="C40" t="s">
-        <v>829</v>
-      </c>
-      <c r="D40" s="63">
+      <c r="D40" s="61">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="62">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="62">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="62">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="62">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="62">
         <f>$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="62">
         <f>$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K40" s="64">
+      <c r="K40" s="62">
         <f>$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L40" s="64">
+      <c r="L40" s="62">
         <f>$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M40" s="64">
+      <c r="M40" s="62">
         <f t="shared" ref="M40:O40" si="1">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N40" s="62">
         <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="62">
         <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="65"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>899</v>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="63"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B41" t="s">
+        <v>829</v>
+      </c>
+      <c r="C41" t="s">
         <v>830</v>
       </c>
-      <c r="C41" t="s">
-        <v>831</v>
-      </c>
-      <c r="D41" s="63">
+      <c r="D41" s="61">
         <f>$Q$15</f>
         <v>1</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="62">
         <f t="shared" ref="E41:F41" si="2">$Q$15</f>
         <v>1</v>
       </c>
-      <c r="F41" s="64">
+      <c r="F41" s="62">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G41" s="64">
+      <c r="G41" s="62">
         <f>$Q$15</f>
         <v>1</v>
       </c>
-      <c r="H41" s="64">
+      <c r="H41" s="62">
         <f>$Q$15</f>
         <v>1</v>
       </c>
-      <c r="I41" s="64">
+      <c r="I41" s="62">
         <f>$K$15</f>
         <v>1</v>
       </c>
-      <c r="J41" s="64">
+      <c r="J41" s="62">
         <f>$I$15</f>
         <v>0.99877498740551296</v>
       </c>
-      <c r="K41" s="64">
+      <c r="K41" s="62">
         <f>$N$15</f>
         <v>1</v>
       </c>
-      <c r="L41" s="64">
+      <c r="L41" s="62">
         <f>$O$15</f>
         <v>0.999156412809172</v>
       </c>
-      <c r="M41" s="64">
+      <c r="M41" s="62">
         <f>$P$15</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="N41" s="64">
+      <c r="N41" s="62">
         <f>$P$15</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="O41" s="64">
+      <c r="O41" s="62">
         <f>$P$15</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="65"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>899</v>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="63"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B42" t="s">
         <v>464</v>
@@ -41077,64 +41077,64 @@
       <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="61">
         <f>$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="62">
         <f t="shared" ref="E42:G42" si="3">$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="F42" s="64">
+      <c r="F42" s="62">
         <f t="shared" si="3"/>
         <v>0.95200977870694903</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="62">
         <f t="shared" si="3"/>
         <v>0.95200977870694903</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="62">
         <f>$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="62">
         <f>$K$16</f>
         <v>0.91188541832382797</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="62">
         <f>$I$16</f>
         <v>0.90542002153861501</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="62">
         <f>$N$16</f>
         <v>0.81225200582322299</v>
       </c>
-      <c r="L42" s="64">
+      <c r="L42" s="62">
         <f>$O$16</f>
         <v>0.90874200468859301</v>
       </c>
-      <c r="M42" s="64">
+      <c r="M42" s="62">
         <f>$P$16</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="N42" s="64">
+      <c r="N42" s="62">
         <f>$P$16</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="O42" s="64">
+      <c r="O42" s="62">
         <f>$P$16</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="65"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
-        <v>899</v>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="63"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B43" t="s">
         <v>465</v>
@@ -41142,64 +41142,64 @@
       <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="61">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="62">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="62">
         <f t="shared" ref="F43:G43" si="4">$Q$17</f>
         <v>1</v>
       </c>
-      <c r="G43" s="64">
+      <c r="G43" s="62">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="62">
         <f>$Q$17</f>
         <v>1</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="62">
         <f>$K$17</f>
         <v>1</v>
       </c>
-      <c r="J43" s="64">
+      <c r="J43" s="62">
         <f>$I$17</f>
         <v>0.99959212142745102</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="62">
         <f>$N$17</f>
         <v>1</v>
       </c>
-      <c r="L43" s="64">
+      <c r="L43" s="62">
         <f>$O$17</f>
         <v>1</v>
       </c>
-      <c r="M43" s="64">
+      <c r="M43" s="62">
         <f>$P$17</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="N43" s="64">
+      <c r="N43" s="62">
         <f>$P$17</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="O43" s="64">
+      <c r="O43" s="62">
         <f>$P$17</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="65"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>899</v>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="63"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B44" t="s">
         <v>466</v>
@@ -41207,64 +41207,64 @@
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="61">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="62">
         <f t="shared" ref="E44:F44" si="5">$Q$18</f>
         <v>1</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G44" s="64">
+      <c r="G44" s="62">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H44" s="62">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="62">
         <f>$K$18</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="J44" s="64">
+      <c r="J44" s="62">
         <f>$I$18</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="62">
         <f>$N$18</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="L44" s="64">
+      <c r="L44" s="62">
         <f>$O$18</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="M44" s="64">
+      <c r="M44" s="62">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N44" s="64">
+      <c r="N44" s="62">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O44" s="62">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="65"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
-        <v>899</v>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="63"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B45" t="s">
         <v>467</v>
@@ -41272,64 +41272,64 @@
       <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="61">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="62">
         <f t="shared" ref="E45:G45" si="6">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="62">
         <f t="shared" si="6"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G45" s="64">
+      <c r="G45" s="62">
         <f t="shared" si="6"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="62">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="62">
         <f>$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J45" s="64">
+      <c r="J45" s="62">
         <f>$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="62">
         <f>$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L45" s="64">
+      <c r="L45" s="62">
         <f>$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M45" s="64">
+      <c r="M45" s="62">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N45" s="64">
+      <c r="N45" s="62">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O45" s="64">
+      <c r="O45" s="62">
         <f t="shared" ref="O45" si="7">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="65"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
-        <v>899</v>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="63"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B46" t="s">
         <v>468</v>
@@ -41337,64 +41337,64 @@
       <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="61">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="62">
         <f t="shared" ref="E46:G46" si="8">$Q$18</f>
         <v>1</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="62">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="62">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="62">
         <f>$Q$18</f>
         <v>1</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="62">
         <f>$K$18</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="J46" s="64">
+      <c r="J46" s="62">
         <f>$I$18</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="K46" s="64">
+      <c r="K46" s="62">
         <f>$N$18</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="L46" s="64">
+      <c r="L46" s="62">
         <f>$O$18</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="M46" s="64">
+      <c r="M46" s="62">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N46" s="64">
+      <c r="N46" s="62">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O46" s="64">
+      <c r="O46" s="62">
         <f>$P$18</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="65"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
-        <v>899</v>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="63"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B47" t="s">
         <v>469</v>
@@ -41402,64 +41402,64 @@
       <c r="C47" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="63">
+      <c r="D47" s="61">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="62">
         <f t="shared" ref="E47:H49" si="9">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H47" s="64">
+      <c r="H47" s="62">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="62">
         <f>$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J47" s="64">
+      <c r="J47" s="62">
         <f>$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K47" s="64">
+      <c r="K47" s="62">
         <f>$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L47" s="64">
+      <c r="L47" s="62">
         <f>$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M47" s="64">
+      <c r="M47" s="62">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N47" s="64">
+      <c r="N47" s="62">
         <f>$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O47" s="64">
+      <c r="O47" s="62">
         <f t="shared" ref="O47:O49" si="10">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="65"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
-        <v>899</v>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="63"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B48" t="s">
         <v>470</v>
@@ -41467,64 +41467,64 @@
       <c r="C48" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D48" s="61">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G48" s="64">
+      <c r="G48" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="62">
         <f t="shared" ref="I48:I49" si="11">$K$13</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="62">
         <f t="shared" ref="J48:J49" si="12">$I$13</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K48" s="64">
+      <c r="K48" s="62">
         <f t="shared" ref="K48:K49" si="13">$N$13</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L48" s="64">
+      <c r="L48" s="62">
         <f t="shared" ref="L48:L49" si="14">$O$13</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M48" s="64">
+      <c r="M48" s="62">
         <f t="shared" ref="M48:N49" si="15">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N48" s="64">
+      <c r="N48" s="62">
         <f t="shared" si="15"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="62">
         <f t="shared" si="10"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="64"/>
-      <c r="U48" s="65"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>899</v>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="63"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="B49" t="s">
         <v>471</v>
@@ -41532,113 +41532,113 @@
       <c r="C49" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="61">
         <f>$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="62">
         <f t="shared" si="9"/>
         <v>0.94166040230902204</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="62">
         <f t="shared" si="11"/>
         <v>0.87138156437019998</v>
       </c>
-      <c r="J49" s="64">
+      <c r="J49" s="62">
         <f t="shared" si="12"/>
         <v>0.86927271702207298</v>
       </c>
-      <c r="K49" s="64">
+      <c r="K49" s="62">
         <f t="shared" si="13"/>
         <v>0.81809329894973004</v>
       </c>
-      <c r="L49" s="64">
+      <c r="L49" s="62">
         <f t="shared" si="14"/>
         <v>0.89771421948548102</v>
       </c>
-      <c r="M49" s="64">
+      <c r="M49" s="62">
         <f t="shared" si="15"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N49" s="64">
+      <c r="N49" s="62">
         <f t="shared" si="15"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O49" s="64">
+      <c r="O49" s="62">
         <f t="shared" si="10"/>
         <v>0.95978881465296295</v>
       </c>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="65"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
-        <v>900</v>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="63"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="40" t="s">
+        <v>899</v>
       </c>
       <c r="B50" t="s">
+        <v>835</v>
+      </c>
+      <c r="C50" t="s">
         <v>836</v>
       </c>
-      <c r="C50" t="s">
-        <v>837</v>
-      </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67">
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65">
         <f>$K$9</f>
         <v>0.8</v>
       </c>
-      <c r="J50" s="67">
+      <c r="J50" s="65">
         <f>$I$9</f>
         <v>0.8</v>
       </c>
-      <c r="K50" s="67">
+      <c r="K50" s="65">
         <f>$N$9</f>
         <v>0.8</v>
       </c>
-      <c r="L50" s="67">
+      <c r="L50" s="65">
         <f>$O$9</f>
         <v>0.8</v>
       </c>
-      <c r="M50" s="67">
+      <c r="M50" s="65">
         <f>$P$9</f>
         <v>0.7</v>
       </c>
-      <c r="N50" s="67">
+      <c r="N50" s="65">
         <f>$P$9</f>
         <v>0.7</v>
       </c>
-      <c r="O50" s="67">
+      <c r="O50" s="65">
         <f>$P$9</f>
         <v>0.7</v>
       </c>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67">
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65">
         <f>$D$9</f>
         <v>0.85</v>
       </c>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="68"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -41666,13 +41666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBEC8A3-CD53-4C80-AD86-F03C2696271C}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>exio_usa!B35</f>
         <v>USA</v>
@@ -41691,7 +41691,7 @@
       </c>
       <c r="E1" t="str">
         <f>exio_usa!F35</f>
-        <v>Other buildungs</v>
+        <v>Other buildings</v>
       </c>
       <c r="F1" t="str">
         <f>exio_usa!G35</f>
@@ -41754,1232 +41754,1232 @@
         <v>Services</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>exio_usa!B36</f>
         <v>321100+321200</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="67" t="str">
         <f>exio_usa!C36</f>
         <v>Sawmills and wood preservation+Veneer, plywood, and engineered wood product manufacturing</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="67">
         <f>exio_usa!D36</f>
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="67">
         <f>exio_usa!E36</f>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="67">
         <f>exio_usa!F36</f>
         <v>0</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="67">
         <f>exio_usa!G36</f>
         <v>0</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="67">
         <f>exio_usa!H36</f>
         <v>0</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="67">
         <f>exio_usa!I36</f>
         <v>0</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="67">
         <f>exio_usa!J36</f>
         <v>0</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="67">
         <f>exio_usa!K36</f>
         <v>0</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="67">
         <f>exio_usa!L36</f>
         <v>0</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="67">
         <f>exio_usa!M36</f>
         <v>0.7</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="67">
         <f>exio_usa!N36</f>
         <v>0.7</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="67">
         <f>exio_usa!O36</f>
         <v>0.7</v>
       </c>
-      <c r="O2" s="69">
+      <c r="O2" s="67">
         <f>exio_usa!P36</f>
         <v>0</v>
       </c>
-      <c r="P2" s="69">
+      <c r="P2" s="67">
         <f>exio_usa!Q36</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="67">
         <f>exio_usa!R36</f>
         <v>0</v>
       </c>
-      <c r="R2" s="69">
+      <c r="R2" s="67">
         <f>exio_usa!S36</f>
         <v>0</v>
       </c>
-      <c r="S2" s="69">
+      <c r="S2" s="67">
         <f>exio_usa!T36</f>
         <v>0</v>
       </c>
-      <c r="T2" s="69">
+      <c r="T2" s="67">
         <f>exio_usa!U36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>exio_usa!B37</f>
         <v>321910</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="67" t="str">
         <f>exio_usa!C37</f>
         <v>Millwork</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="67">
         <f>exio_usa!D37</f>
         <v>0</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="67">
         <f>exio_usa!E37</f>
         <v>0</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="67">
         <f>exio_usa!F37</f>
         <v>0</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="67">
         <f>exio_usa!G37</f>
         <v>0</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="67">
         <f>exio_usa!H37</f>
         <v>0</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="67">
         <f>exio_usa!I37</f>
         <v>0</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="67">
         <f>exio_usa!J37</f>
         <v>0</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="67">
         <f>exio_usa!K37</f>
         <v>0</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="67">
         <f>exio_usa!L37</f>
         <v>0</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="67">
         <f>exio_usa!M37</f>
         <v>0.7</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="67">
         <f>exio_usa!N37</f>
         <v>0.7</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="67">
         <f>exio_usa!O37</f>
         <v>0.7</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="67">
         <f>exio_usa!P37</f>
         <v>0</v>
       </c>
-      <c r="P3" s="69">
+      <c r="P3" s="67">
         <f>exio_usa!Q37</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="67">
         <f>exio_usa!R37</f>
         <v>0</v>
       </c>
-      <c r="R3" s="69">
+      <c r="R3" s="67">
         <f>exio_usa!S37</f>
         <v>0</v>
       </c>
-      <c r="S3" s="69">
+      <c r="S3" s="67">
         <f>exio_usa!T37</f>
         <v>0</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="67">
         <f>exio_usa!U37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>exio_usa!B38</f>
         <v>3219A0</v>
       </c>
-      <c r="B4" s="69" t="str">
+      <c r="B4" s="67" t="str">
         <f>exio_usa!C38</f>
         <v>All other wood product manufacturing</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="67">
         <f>exio_usa!D38</f>
         <v>0</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="67">
         <f>exio_usa!E38</f>
         <v>0</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="67">
         <f>exio_usa!F38</f>
         <v>0</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="67">
         <f>exio_usa!G38</f>
         <v>0</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="67">
         <f>exio_usa!H38</f>
         <v>0</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="67">
         <f>exio_usa!I38</f>
         <v>0</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="67">
         <f>exio_usa!J38</f>
         <v>0</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="67">
         <f>exio_usa!K38</f>
         <v>0</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="67">
         <f>exio_usa!L38</f>
         <v>0</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="67">
         <f>exio_usa!M38</f>
         <v>0.7</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="67">
         <f>exio_usa!N38</f>
         <v>0.7</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="67">
         <f>exio_usa!O38</f>
         <v>0.7</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="67">
         <f>exio_usa!P38</f>
         <v>0</v>
       </c>
-      <c r="P4" s="69">
+      <c r="P4" s="67">
         <f>exio_usa!Q38</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="67">
         <f>exio_usa!R38</f>
         <v>0</v>
       </c>
-      <c r="R4" s="69">
+      <c r="R4" s="67">
         <f>exio_usa!S38</f>
         <v>0</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="67">
         <f>exio_usa!T38</f>
         <v>0</v>
       </c>
-      <c r="T4" s="69">
+      <c r="T4" s="67">
         <f>exio_usa!U38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>exio_usa!B39</f>
         <v>327200</v>
       </c>
-      <c r="B5" s="69" t="str">
+      <c r="B5" s="67" t="str">
         <f>exio_usa!C39</f>
         <v>Glass and glass product manufacturing</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="67">
         <f>exio_usa!D39</f>
         <v>0</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="67">
         <f>exio_usa!E39</f>
         <v>0</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="67">
         <f>exio_usa!F39</f>
         <v>0</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="67">
         <f>exio_usa!G39</f>
         <v>0</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="67">
         <f>exio_usa!H39</f>
         <v>0</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="67">
         <f>exio_usa!I39</f>
         <v>0.8</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="67">
         <f>exio_usa!J39</f>
         <v>0.8</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="67">
         <f>exio_usa!K39</f>
         <v>0.8</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="67">
         <f>exio_usa!L39</f>
         <v>0.8</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="67">
         <f>exio_usa!M39</f>
         <v>0.7</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="67">
         <f>exio_usa!N39</f>
         <v>0.7</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="67">
         <f>exio_usa!O39</f>
         <v>0.7</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="67">
         <f>exio_usa!P39</f>
         <v>0</v>
       </c>
-      <c r="P5" s="69">
+      <c r="P5" s="67">
         <f>exio_usa!Q39</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="67">
         <f>exio_usa!R39</f>
         <v>0</v>
       </c>
-      <c r="R5" s="69">
+      <c r="R5" s="67">
         <f>exio_usa!S39</f>
         <v>0</v>
       </c>
-      <c r="S5" s="69">
+      <c r="S5" s="67">
         <f>exio_usa!T39</f>
         <v>0</v>
       </c>
-      <c r="T5" s="69">
+      <c r="T5" s="67">
         <f>exio_usa!U39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>exio_usa!B40</f>
         <v>331110+331200</v>
       </c>
-      <c r="B6" s="69" t="str">
+      <c r="B6" s="67" t="str">
         <f>exio_usa!C40</f>
         <v>Iron and steel mills and ferroalloy manufacturing+Steel product manufacturing from purchased steel</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="67">
         <f>exio_usa!D40</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="67">
         <f>exio_usa!E40</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="67">
         <f>exio_usa!F40</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="67">
         <f>exio_usa!G40</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="67">
         <f>exio_usa!H40</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="67">
         <f>exio_usa!I40</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="67">
         <f>exio_usa!J40</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="67">
         <f>exio_usa!K40</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="67">
         <f>exio_usa!L40</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="67">
         <f>exio_usa!M40</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="67">
         <f>exio_usa!N40</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="67">
         <f>exio_usa!O40</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="67">
         <f>exio_usa!P40</f>
         <v>0</v>
       </c>
-      <c r="P6" s="69">
+      <c r="P6" s="67">
         <f>exio_usa!Q40</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="67">
         <f>exio_usa!R40</f>
         <v>0</v>
       </c>
-      <c r="R6" s="69">
+      <c r="R6" s="67">
         <f>exio_usa!S40</f>
         <v>0</v>
       </c>
-      <c r="S6" s="69">
+      <c r="S6" s="67">
         <f>exio_usa!T40</f>
         <v>0</v>
       </c>
-      <c r="T6" s="69">
+      <c r="T6" s="67">
         <f>exio_usa!U40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>exio_usa!B41</f>
         <v>331313+33131B</v>
       </c>
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="67" t="str">
         <f>exio_usa!C41</f>
         <v>Alumina refining and primary aluminum production+Aluminum product manufacturing from purchased aluminum</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="67">
         <f>exio_usa!D41</f>
         <v>1</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="67">
         <f>exio_usa!E41</f>
         <v>1</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="67">
         <f>exio_usa!F41</f>
         <v>1</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="67">
         <f>exio_usa!G41</f>
         <v>1</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="67">
         <f>exio_usa!H41</f>
         <v>1</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="67">
         <f>exio_usa!I41</f>
         <v>1</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="67">
         <f>exio_usa!J41</f>
         <v>0.99877498740551296</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="67">
         <f>exio_usa!K41</f>
         <v>1</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="67">
         <f>exio_usa!L41</f>
         <v>0.999156412809172</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="67">
         <f>exio_usa!M41</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="67">
         <f>exio_usa!N41</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="67">
         <f>exio_usa!O41</f>
         <v>0.98009206796423698</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="67">
         <f>exio_usa!P41</f>
         <v>0</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="67">
         <f>exio_usa!Q41</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="67">
         <f>exio_usa!R41</f>
         <v>0</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="67">
         <f>exio_usa!S41</f>
         <v>0</v>
       </c>
-      <c r="S7" s="69">
+      <c r="S7" s="67">
         <f>exio_usa!T41</f>
         <v>0</v>
       </c>
-      <c r="T7" s="69">
+      <c r="T7" s="67">
         <f>exio_usa!U41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>exio_usa!B42</f>
         <v>331410</v>
       </c>
-      <c r="B8" s="69" t="str">
+      <c r="B8" s="67" t="str">
         <f>exio_usa!C42</f>
         <v>Nonferrous Metal (except Aluminum) Smelting and Refining</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="67">
         <f>exio_usa!D42</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="67">
         <f>exio_usa!E42</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="67">
         <f>exio_usa!F42</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="67">
         <f>exio_usa!G42</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="67">
         <f>exio_usa!H42</f>
         <v>0.95200977870694903</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="67">
         <f>exio_usa!I42</f>
         <v>0.91188541832382797</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="67">
         <f>exio_usa!J42</f>
         <v>0.90542002153861501</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="67">
         <f>exio_usa!K42</f>
         <v>0.81225200582322299</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="67">
         <f>exio_usa!L42</f>
         <v>0.90874200468859301</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="67">
         <f>exio_usa!M42</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="67">
         <f>exio_usa!N42</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="67">
         <f>exio_usa!O42</f>
         <v>0.98460249995958704</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="67">
         <f>exio_usa!P42</f>
         <v>0</v>
       </c>
-      <c r="P8" s="69">
+      <c r="P8" s="67">
         <f>exio_usa!Q42</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="67">
         <f>exio_usa!R42</f>
         <v>0</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="67">
         <f>exio_usa!S42</f>
         <v>0</v>
       </c>
-      <c r="S8" s="69">
+      <c r="S8" s="67">
         <f>exio_usa!T42</f>
         <v>0</v>
       </c>
-      <c r="T8" s="69">
+      <c r="T8" s="67">
         <f>exio_usa!U42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>exio_usa!B43</f>
         <v>331420</v>
       </c>
-      <c r="B9" s="69" t="str">
+      <c r="B9" s="67" t="str">
         <f>exio_usa!C43</f>
         <v>Copper rolling, drawing, extruding and alloying</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="67">
         <f>exio_usa!D43</f>
         <v>1</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="67">
         <f>exio_usa!E43</f>
         <v>1</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="67">
         <f>exio_usa!F43</f>
         <v>1</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="67">
         <f>exio_usa!G43</f>
         <v>1</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="67">
         <f>exio_usa!H43</f>
         <v>1</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="67">
         <f>exio_usa!I43</f>
         <v>1</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="67">
         <f>exio_usa!J43</f>
         <v>0.99959212142745102</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="67">
         <f>exio_usa!K43</f>
         <v>1</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="67">
         <f>exio_usa!L43</f>
         <v>1</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="67">
         <f>exio_usa!M43</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="67">
         <f>exio_usa!N43</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="67">
         <f>exio_usa!O43</f>
         <v>0.99517688048449904</v>
       </c>
-      <c r="O9" s="69">
+      <c r="O9" s="67">
         <f>exio_usa!P43</f>
         <v>0</v>
       </c>
-      <c r="P9" s="69">
+      <c r="P9" s="67">
         <f>exio_usa!Q43</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="69">
+      <c r="Q9" s="67">
         <f>exio_usa!R43</f>
         <v>0</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="67">
         <f>exio_usa!S43</f>
         <v>0</v>
       </c>
-      <c r="S9" s="69">
+      <c r="S9" s="67">
         <f>exio_usa!T43</f>
         <v>0</v>
       </c>
-      <c r="T9" s="69">
+      <c r="T9" s="67">
         <f>exio_usa!U43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>exio_usa!B44</f>
         <v>331490</v>
       </c>
-      <c r="B10" s="69" t="str">
+      <c r="B10" s="67" t="str">
         <f>exio_usa!C44</f>
         <v>Nonferrous metal (except copper and aluminum) rolling, drawing, extruding and alloying</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="67">
         <f>exio_usa!D44</f>
         <v>1</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="67">
         <f>exio_usa!E44</f>
         <v>1</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="67">
         <f>exio_usa!F44</f>
         <v>1</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="67">
         <f>exio_usa!G44</f>
         <v>1</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="67">
         <f>exio_usa!H44</f>
         <v>1</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="67">
         <f>exio_usa!I44</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="67">
         <f>exio_usa!J44</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="67">
         <f>exio_usa!K44</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="67">
         <f>exio_usa!L44</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="67">
         <f>exio_usa!M44</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="67">
         <f>exio_usa!N44</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="67">
         <f>exio_usa!O44</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O10" s="69">
+      <c r="O10" s="67">
         <f>exio_usa!P44</f>
         <v>0</v>
       </c>
-      <c r="P10" s="69">
+      <c r="P10" s="67">
         <f>exio_usa!Q44</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="69">
+      <c r="Q10" s="67">
         <f>exio_usa!R44</f>
         <v>0</v>
       </c>
-      <c r="R10" s="69">
+      <c r="R10" s="67">
         <f>exio_usa!S44</f>
         <v>0</v>
       </c>
-      <c r="S10" s="69">
+      <c r="S10" s="67">
         <f>exio_usa!T44</f>
         <v>0</v>
       </c>
-      <c r="T10" s="69">
+      <c r="T10" s="67">
         <f>exio_usa!U44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>exio_usa!B45</f>
         <v>331510</v>
       </c>
-      <c r="B11" s="69" t="str">
+      <c r="B11" s="67" t="str">
         <f>exio_usa!C45</f>
         <v>Ferrous metal foundries</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="67">
         <f>exio_usa!D45</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="67">
         <f>exio_usa!E45</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="67">
         <f>exio_usa!F45</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="67">
         <f>exio_usa!G45</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="67">
         <f>exio_usa!H45</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="67">
         <f>exio_usa!I45</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="67">
         <f>exio_usa!J45</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="67">
         <f>exio_usa!K45</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="67">
         <f>exio_usa!L45</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="67">
         <f>exio_usa!M45</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="67">
         <f>exio_usa!N45</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="67">
         <f>exio_usa!O45</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="67">
         <f>exio_usa!P45</f>
         <v>0</v>
       </c>
-      <c r="P11" s="69">
+      <c r="P11" s="67">
         <f>exio_usa!Q45</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="67">
         <f>exio_usa!R45</f>
         <v>0</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="67">
         <f>exio_usa!S45</f>
         <v>0</v>
       </c>
-      <c r="S11" s="69">
+      <c r="S11" s="67">
         <f>exio_usa!T45</f>
         <v>0</v>
       </c>
-      <c r="T11" s="69">
+      <c r="T11" s="67">
         <f>exio_usa!U45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>exio_usa!B46</f>
         <v>331520</v>
       </c>
-      <c r="B12" s="69" t="str">
+      <c r="B12" s="67" t="str">
         <f>exio_usa!C46</f>
         <v>Nonferrous metal foundries</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="67">
         <f>exio_usa!D46</f>
         <v>1</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="67">
         <f>exio_usa!E46</f>
         <v>1</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="67">
         <f>exio_usa!F46</f>
         <v>1</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="67">
         <f>exio_usa!G46</f>
         <v>1</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="67">
         <f>exio_usa!H46</f>
         <v>1</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="67">
         <f>exio_usa!I46</f>
         <v>0.99949496003205796</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="67">
         <f>exio_usa!J46</f>
         <v>0.99996338425751496</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="67">
         <f>exio_usa!K46</f>
         <v>0.99974574415004602</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="67">
         <f>exio_usa!L46</f>
         <v>0.99996712399807097</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="67">
         <f>exio_usa!M46</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="67">
         <f>exio_usa!N46</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="67">
         <f>exio_usa!O46</f>
         <v>0.99992430312491298</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="67">
         <f>exio_usa!P46</f>
         <v>0</v>
       </c>
-      <c r="P12" s="69">
+      <c r="P12" s="67">
         <f>exio_usa!Q46</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="67">
         <f>exio_usa!R46</f>
         <v>0</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="67">
         <f>exio_usa!S46</f>
         <v>0</v>
       </c>
-      <c r="S12" s="69">
+      <c r="S12" s="67">
         <f>exio_usa!T46</f>
         <v>0</v>
       </c>
-      <c r="T12" s="69">
+      <c r="T12" s="67">
         <f>exio_usa!U46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>exio_usa!B47</f>
         <v>332114</v>
       </c>
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="67" t="str">
         <f>exio_usa!C47</f>
         <v>Custom roll forming</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="67">
         <f>exio_usa!D47</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="67">
         <f>exio_usa!E47</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="67">
         <f>exio_usa!F47</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="67">
         <f>exio_usa!G47</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="67">
         <f>exio_usa!H47</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="67">
         <f>exio_usa!I47</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="67">
         <f>exio_usa!J47</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="67">
         <f>exio_usa!K47</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="67">
         <f>exio_usa!L47</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="67">
         <f>exio_usa!M47</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="67">
         <f>exio_usa!N47</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="67">
         <f>exio_usa!O47</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O13" s="69">
+      <c r="O13" s="67">
         <f>exio_usa!P47</f>
         <v>0</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="67">
         <f>exio_usa!Q47</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="69">
+      <c r="Q13" s="67">
         <f>exio_usa!R47</f>
         <v>0</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="67">
         <f>exio_usa!S47</f>
         <v>0</v>
       </c>
-      <c r="S13" s="69">
+      <c r="S13" s="67">
         <f>exio_usa!T47</f>
         <v>0</v>
       </c>
-      <c r="T13" s="69">
+      <c r="T13" s="67">
         <f>exio_usa!U47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>exio_usa!B48</f>
         <v>33211A</v>
       </c>
-      <c r="B14" s="69" t="str">
+      <c r="B14" s="67" t="str">
         <f>exio_usa!C48</f>
         <v>All other forging, stamping, and sintering</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="67">
         <f>exio_usa!D48</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="67">
         <f>exio_usa!E48</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="67">
         <f>exio_usa!F48</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="67">
         <f>exio_usa!G48</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="67">
         <f>exio_usa!H48</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="67">
         <f>exio_usa!I48</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="67">
         <f>exio_usa!J48</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="67">
         <f>exio_usa!K48</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="67">
         <f>exio_usa!L48</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="67">
         <f>exio_usa!M48</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="67">
         <f>exio_usa!N48</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="67">
         <f>exio_usa!O48</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="67">
         <f>exio_usa!P48</f>
         <v>0</v>
       </c>
-      <c r="P14" s="69">
+      <c r="P14" s="67">
         <f>exio_usa!Q48</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="69">
+      <c r="Q14" s="67">
         <f>exio_usa!R48</f>
         <v>0</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="67">
         <f>exio_usa!S48</f>
         <v>0</v>
       </c>
-      <c r="S14" s="69">
+      <c r="S14" s="67">
         <f>exio_usa!T48</f>
         <v>0</v>
       </c>
-      <c r="T14" s="69">
+      <c r="T14" s="67">
         <f>exio_usa!U48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>exio_usa!B49</f>
         <v>332119</v>
       </c>
-      <c r="B15" s="69" t="str">
+      <c r="B15" s="67" t="str">
         <f>exio_usa!C49</f>
         <v>Metal crown, closure, and other metal stamping (except automotive)</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="67">
         <f>exio_usa!D49</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="67">
         <f>exio_usa!E49</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="67">
         <f>exio_usa!F49</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="67">
         <f>exio_usa!G49</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="67">
         <f>exio_usa!H49</f>
         <v>0.94166040230902204</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="67">
         <f>exio_usa!I49</f>
         <v>0.87138156437019998</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="67">
         <f>exio_usa!J49</f>
         <v>0.86927271702207298</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="67">
         <f>exio_usa!K49</f>
         <v>0.81809329894973004</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="67">
         <f>exio_usa!L49</f>
         <v>0.89771421948548102</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="67">
         <f>exio_usa!M49</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="67">
         <f>exio_usa!N49</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="67">
         <f>exio_usa!O49</f>
         <v>0.95978881465296295</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="67">
         <f>exio_usa!P49</f>
         <v>0</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="67">
         <f>exio_usa!Q49</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="69">
+      <c r="Q15" s="67">
         <f>exio_usa!R49</f>
         <v>0</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="67">
         <f>exio_usa!S49</f>
         <v>0</v>
       </c>
-      <c r="S15" s="69">
+      <c r="S15" s="67">
         <f>exio_usa!T49</f>
         <v>0</v>
       </c>
-      <c r="T15" s="69">
+      <c r="T15" s="67">
         <f>exio_usa!U49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>exio_usa!B50</f>
         <v>325211+3252A0</v>
       </c>
-      <c r="B16" s="69" t="str">
+      <c r="B16" s="67" t="str">
         <f>exio_usa!C50</f>
         <v>Plastics material and resin manufacturing+Synthetic rubber and artificial and synthetic fibers and filaments manufacturing</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="67">
         <f>exio_usa!D50</f>
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="67">
         <f>exio_usa!E50</f>
         <v>0</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="67">
         <f>exio_usa!F50</f>
         <v>0</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="67">
         <f>exio_usa!G50</f>
         <v>0</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="67">
         <f>exio_usa!H50</f>
         <v>0</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="67">
         <f>exio_usa!I50</f>
         <v>0.8</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="67">
         <f>exio_usa!J50</f>
         <v>0.8</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="67">
         <f>exio_usa!K50</f>
         <v>0.8</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="67">
         <f>exio_usa!L50</f>
         <v>0.8</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="67">
         <f>exio_usa!M50</f>
         <v>0.7</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="67">
         <f>exio_usa!N50</f>
         <v>0.7</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="67">
         <f>exio_usa!O50</f>
         <v>0.7</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="67">
         <f>exio_usa!P50</f>
         <v>0</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="67">
         <f>exio_usa!Q50</f>
         <v>0.85</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="67">
         <f>exio_usa!R50</f>
         <v>0</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="67">
         <f>exio_usa!S50</f>
         <v>0</v>
       </c>
-      <c r="S16" s="69">
+      <c r="S16" s="67">
         <f>exio_usa!T50</f>
         <v>0</v>
       </c>
-      <c r="T16" s="69">
+      <c r="T16" s="67">
         <f>exio_usa!U50</f>
         <v>0</v>
       </c>
